--- a/Linearisierungen/Strombezug.xlsx
+++ b/Linearisierungen/Strombezug.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_5B8D24C4888485FE58F42C498F87E25B2C1BE759" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{2DAC5A5C-7292-4169-AC9E-43066AE68469}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_5B8D24C4888485FE58F42C498F87E25B2C1BE759" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{FF257A51-183C-4170-BD20-219344C7E823}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,12 +172,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -250,10 +251,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle!$B$31:$B$43</c:f>
+              <c:f>Tabelle!$B$31:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -276,21 +277,24 @@
                   <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>6000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>7000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
@@ -298,10 +302,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle!$F$31:$F$43</c:f>
+              <c:f>Tabelle!$F$31:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1.556</c:v>
                 </c:pt>
@@ -324,21 +328,24 @@
                   <c:v>51.283000000000008</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>57.993000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>64.703000000000003</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>71.413000000000011</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>78.123000000000005</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>91.543000000000006</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>104.96300000000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>118.38300000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -376,10 +383,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle!$B$54:$B$66</c:f>
+              <c:f>Tabelle!$B$54:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -402,21 +409,24 @@
                   <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>6000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>7000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
@@ -424,10 +434,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle!$F$54:$F$66</c:f>
+              <c:f>Tabelle!$F$54:$F$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3.89</c:v>
                 </c:pt>
@@ -450,21 +460,24 @@
                   <c:v>128.20750000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>144.98250000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>161.75750000000002</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>178.14750000000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>194.53749999999999</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>227.31750000000002</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>260.09750000000003</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>292.8775</c:v>
                 </c:pt>
               </c:numCache>
@@ -502,10 +515,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle!$B$77:$B$89</c:f>
+              <c:f>Tabelle!$B$77:$B$90</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -528,21 +541,24 @@
                   <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>6000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>7000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
@@ -550,10 +566,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle!$F$77:$F$89</c:f>
+              <c:f>Tabelle!$F$77:$F$90</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>7.78</c:v>
                 </c:pt>
@@ -576,21 +592,24 @@
                   <c:v>254.87500000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>287.65500000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>320.435</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>353.21500000000003</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>385.995</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>451.55500000000001</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>517.1149999999999</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>582.67500000000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -759,10 +778,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle!$B$77:$B$89</c:f>
+              <c:f>Tabelle!$B$77:$B$90</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -785,21 +804,24 @@
                   <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>6000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>7000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
@@ -807,10 +829,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle!$G$77:$G$89</c:f>
+              <c:f>Tabelle!$G$77:$G$90</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>19.414751641113096</c:v>
                 </c:pt>
@@ -833,21 +855,24 @@
                   <c:v>245.02425780936895</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>282.62584217074487</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>320.22742653212089</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>357.82901089349684</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>395.4305952548728</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>470.63376397762477</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>545.83693270037668</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>621.0401014231287</c:v>
                 </c:pt>
               </c:numCache>
@@ -1542,21 +1567,24 @@
                   <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>6000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>7000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1590,21 +1618,24 @@
                   <c:v>122.51212890468447</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>141.31292108537244</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>160.11371326606044</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>178.91450544674842</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>197.7152976274364</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>235.31688198881238</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>272.91846635018834</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>310.52005071156435</c:v>
                 </c:pt>
               </c:numCache>
@@ -1635,10 +1666,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle!$B$31:$B$43</c:f>
+              <c:f>Tabelle!$B$31:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1661,21 +1692,24 @@
                   <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>6000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>7000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1683,10 +1717,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle!$G$31:$G$43</c:f>
+              <c:f>Tabelle!$G$31:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>3.882950328222619</c:v>
                 </c:pt>
@@ -1709,21 +1743,24 @@
                   <c:v>49.004851561873785</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>56.525168434148981</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>64.045485306424169</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>71.565802178699371</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>79.086119050974574</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>94.126752795524951</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>109.16738654007534</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>124.20802028462573</c:v>
                 </c:pt>
               </c:numCache>
@@ -1760,12 +1797,23 @@
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1791,10 +1839,10 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="12700">
+          <a:ln w="15875">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1817,6 +1865,7 @@
         <c:crossAx val="104821504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="250"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="104821504"/>
@@ -1831,12 +1880,23 @@
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
+                  <a:lumMod val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1852,7 +1912,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="de-DE" sz="1500" baseline="0"/>
-                  <a:t> [kEUR/a]</a:t>
+                  <a:t> [Tsd. €/a]</a:t>
                 </a:r>
                 <a:endParaRPr lang="de-DE" sz="1500"/>
               </a:p>
@@ -1862,10 +1922,10 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="19050">
+          <a:ln w="15875">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -1884,10 +1944,11 @@
         <c:crossAx val="104802944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="19050">
+        <a:ln w="15875">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -1914,7 +1975,8 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -1922,7 +1984,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6010275"/>
+    <xdr:ext cx="9305925" cy="6000750"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -2913,8 +2975,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:P180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3049,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:C20" si="0">B8*$B$4</f>
+        <f t="shared" ref="C8:C15" si="0">B8*$B$4</f>
         <v>0</v>
       </c>
       <c r="D8" s="4">
@@ -3061,11 +3123,11 @@
         <v>17.21</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ref="F8:F20" si="1">D8/1000*$B$4+E8/100000*C8</f>
+        <f t="shared" ref="F8:F14" si="1">D8/1000*$B$4+E8/100000*C8</f>
         <v>0.77800000000000002</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" ref="G8:G20" si="2">$H$2/1000*$B$4+$H$3/100000*C8</f>
+        <f t="shared" ref="G8:G15" si="2">$H$2/1000*$B$4+$H$3/100000*C8</f>
         <v>1.9414751641113095</v>
       </c>
       <c r="H8" s="4">
@@ -3145,11 +3207,11 @@
         <v>9.4617920363865036</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" ref="H8:H17" si="3">(F10-G10)^2</f>
+        <f t="shared" ref="H10:H14" si="3">(F10-G10)^2</f>
         <v>6.2081849979319613E-3</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ref="I10:I20" si="4">F10*100000/C10</f>
+        <f t="shared" ref="I10:I14" si="4">F10*100000/C10</f>
         <v>18.766000000000002</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -3222,7 +3284,7 @@
         <v>1.011816887633761</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="4"/>
+        <f>F12*100000/C12</f>
         <v>17.988</v>
       </c>
     </row>
@@ -3293,45 +3355,25 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>4000</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="5">
+        <v>3500</v>
+      </c>
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>200000</v>
-      </c>
-      <c r="D15" s="4">
-        <f>IF(B15&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
-        <v>110.23</v>
-      </c>
-      <c r="E15" s="4">
-        <f>Konstanten!$B$3+IF(Tabelle!B15&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C15&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C15-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C15)</f>
-        <v>13.42</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="1"/>
-        <v>32.351500000000001</v>
-      </c>
-      <c r="G15" s="4">
+        <v>175000</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="2"/>
-        <v>32.022742653212084</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="3"/>
-        <v>0.10808139306703073</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="4"/>
-        <v>16.175750000000001</v>
+        <v>28.26258421707449</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="0"/>
-        <v>225000</v>
+        <f t="shared" ref="C16:C21" si="5">B16*$B$4</f>
+        <v>200000</v>
       </c>
       <c r="D16" s="4">
         <f>IF(B16&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -3342,29 +3384,29 @@
         <v>13.42</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="1"/>
-        <v>35.706500000000005</v>
+        <f t="shared" ref="F16:F21" si="6">D16/1000*$B$4+E16/100000*C16</f>
+        <v>32.351500000000001</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="2"/>
-        <v>35.782901089349686</v>
+        <f t="shared" ref="G16:G21" si="7">$H$2/1000*$B$4+$H$3/100000*C16</f>
+        <v>32.022742653212084</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="3"/>
-        <v>5.8371264538178268E-3</v>
+        <f>(F16-G16)^2</f>
+        <v>0.10808139306703073</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="4"/>
-        <v>15.869555555555557</v>
+        <f t="shared" ref="I16:I21" si="8">F16*100000/C16</f>
+        <v>16.175750000000001</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="0"/>
-        <v>250000</v>
+        <f t="shared" si="5"/>
+        <v>225000</v>
       </c>
       <c r="D17" s="4">
         <f>IF(B17&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -3375,29 +3417,29 @@
         <v>13.42</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
-        <v>39.061500000000002</v>
+        <f t="shared" si="6"/>
+        <v>35.706500000000005</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="2"/>
-        <v>39.543059525487287</v>
+        <f t="shared" si="7"/>
+        <v>35.782901089349686</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="3"/>
-        <v>0.23189957658753876</v>
+        <f>(F17-G17)^2</f>
+        <v>5.8371264538178268E-3</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="4"/>
-        <v>15.624600000000003</v>
+        <f t="shared" si="8"/>
+        <v>15.869555555555557</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="0"/>
-        <v>300000</v>
+        <f t="shared" si="5"/>
+        <v>250000</v>
       </c>
       <c r="D18" s="4">
         <f>IF(B18&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -3408,27 +3450,30 @@
         <v>13.42</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="1"/>
-        <v>45.771500000000003</v>
+        <f t="shared" si="6"/>
+        <v>39.061500000000002</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="2"/>
-        <v>47.063376397762475</v>
-      </c>
-      <c r="H18" s="4"/>
+        <f t="shared" si="7"/>
+        <v>39.543059525487287</v>
+      </c>
+      <c r="H18" s="4">
+        <f>(F18-G18)^2</f>
+        <v>0.23189957658753876</v>
+      </c>
       <c r="I18" s="1">
-        <f t="shared" si="4"/>
-        <v>15.257166666666667</v>
+        <f t="shared" si="8"/>
+        <v>15.624600000000003</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="0"/>
-        <v>350000</v>
+        <f t="shared" si="5"/>
+        <v>300000</v>
       </c>
       <c r="D19" s="4">
         <f>IF(B19&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -3439,27 +3484,27 @@
         <v>13.42</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="1"/>
-        <v>52.481500000000004</v>
+        <f t="shared" si="6"/>
+        <v>45.771500000000003</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="2"/>
-        <v>54.583693270037671</v>
+        <f t="shared" si="7"/>
+        <v>47.063376397762475</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="1">
-        <f t="shared" si="4"/>
-        <v>14.994714285714286</v>
+        <f t="shared" si="8"/>
+        <v>15.257166666666667</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="0"/>
-        <v>400000</v>
+        <f t="shared" si="5"/>
+        <v>350000</v>
       </c>
       <c r="D20" s="4">
         <f>IF(B20&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -3470,28 +3515,49 @@
         <v>13.42</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="1"/>
-        <v>59.191500000000005</v>
+        <f t="shared" si="6"/>
+        <v>52.481500000000004</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="2"/>
-        <v>62.104010142312866</v>
+        <f t="shared" si="7"/>
+        <v>54.583693270037671</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="1">
-        <f t="shared" si="4"/>
-        <v>14.797875000000003</v>
+        <f t="shared" si="8"/>
+        <v>14.994714285714286</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="B21" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="5"/>
+        <v>400000</v>
+      </c>
+      <c r="D21" s="4">
+        <f>IF(B21&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
+        <v>110.23</v>
+      </c>
+      <c r="E21" s="4">
+        <f>Konstanten!$B$3+IF(Tabelle!B21&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C21&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C21-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C21)</f>
+        <v>13.42</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="6"/>
+        <v>59.191500000000005</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="7"/>
+        <v>62.104010142312866</v>
+      </c>
       <c r="H21" s="4"/>
+      <c r="I21" s="1">
+        <f t="shared" si="8"/>
+        <v>14.797875000000003</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
@@ -3614,7 +3680,7 @@
         <v>1.556</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" ref="G31:G43" si="5">$H$2/1000*$B$27+$H$3/100000*C31</f>
+        <f t="shared" ref="G31:G38" si="9">$H$2/1000*$B$27+$H$3/100000*C31</f>
         <v>3.882950328222619</v>
       </c>
       <c r="H31" s="4">
@@ -3634,7 +3700,7 @@
         <v>500</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" ref="C32:C43" si="6">B32*$B$27</f>
+        <f t="shared" ref="C32:C38" si="10">B32*$B$27</f>
         <v>50000</v>
       </c>
       <c r="D32" s="4">
@@ -3650,11 +3716,11 @@
         <v>10.161000000000001</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11.403267200497814</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" ref="H32:H40" si="7">(F32-G32)^2</f>
+        <f t="shared" ref="H32:H37" si="11">(F32-G32)^2</f>
         <v>1.5432277974326714</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -3670,7 +3736,7 @@
         <v>1000</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>100000</v>
       </c>
       <c r="D33" s="4">
@@ -3682,15 +3748,15 @@
         <v>17.21</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" ref="F33:F43" si="8">D33/1000*$B$27+E33/100000*C33</f>
+        <f t="shared" ref="F33:F38" si="12">D33/1000*$B$27+E33/100000*C33</f>
         <v>18.766000000000002</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18.923584072773007</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.4832739991727845E-2</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -3706,7 +3772,7 @@
         <v>1500</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>150000</v>
       </c>
       <c r="D34" s="4">
@@ -3718,11 +3784,11 @@
         <v>17.21</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>27.371000000000002</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>26.443900945048203</v>
       </c>
       <c r="H34" s="4">
@@ -3735,7 +3801,7 @@
         <v>2000</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>200000</v>
       </c>
       <c r="D35" s="4">
@@ -3747,15 +3813,15 @@
         <v>17.21</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>35.975999999999999</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>33.964217817323394</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.0472675505350439</v>
       </c>
     </row>
@@ -3764,7 +3830,7 @@
         <v>2500</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>250000</v>
       </c>
       <c r="D36" s="4">
@@ -3776,15 +3842,15 @@
         <v>13.42</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>44.573000000000008</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>41.484534689598597</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>9.5386179735528813</v>
       </c>
     </row>
@@ -3793,7 +3859,7 @@
         <v>3000</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>300000</v>
       </c>
       <c r="D37" s="4">
@@ -3805,25 +3871,25 @@
         <v>13.42</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>51.283000000000008</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>49.004851561873785</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.1899603061369497</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
-        <v>4000</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" si="6"/>
-        <v>400000</v>
+      <c r="B38" s="5">
+        <v>3500</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="10"/>
+        <v>350000</v>
       </c>
       <c r="D38" s="4">
         <f>IF(B38&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -3834,26 +3900,21 @@
         <v>13.42</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="8"/>
-        <v>64.703000000000003</v>
-      </c>
-      <c r="G38" s="4">
-        <f t="shared" si="5"/>
-        <v>64.045485306424169</v>
-      </c>
-      <c r="H38" s="4">
-        <f>(F38-G38)^2</f>
-        <v>0.4323255722681229</v>
+        <f t="shared" si="12"/>
+        <v>57.993000000000009</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="9"/>
+        <v>56.525168434148981</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
-        <f>B38+500</f>
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="6"/>
-        <v>450000</v>
+        <f t="shared" ref="C39:C44" si="13">B39*$B$27</f>
+        <v>400000</v>
       </c>
       <c r="D39" s="4">
         <f>IF(B39&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -3864,26 +3925,26 @@
         <v>13.42</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="8"/>
-        <v>71.413000000000011</v>
+        <f t="shared" ref="F39:F44" si="14">D39/1000*$B$27+E39/100000*C39</f>
+        <v>64.703000000000003</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="5"/>
-        <v>71.565802178699371</v>
+        <f t="shared" ref="G39:G44" si="15">$H$2/1000*$B$27+$H$3/100000*C39</f>
+        <v>64.045485306424169</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="7"/>
-        <v>2.3348505815271307E-2</v>
+        <f>(F39-G39)^2</f>
+        <v>0.4323255722681229</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
-        <f t="shared" ref="B40" si="9">B39+500</f>
-        <v>5000</v>
+        <f>B39+500</f>
+        <v>4500</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="6"/>
-        <v>500000</v>
+        <f t="shared" si="13"/>
+        <v>450000</v>
       </c>
       <c r="D40" s="4">
         <f>IF(B40&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -3894,25 +3955,26 @@
         <v>13.42</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="8"/>
-        <v>78.123000000000005</v>
+        <f t="shared" si="14"/>
+        <v>71.413000000000011</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="5"/>
-        <v>79.086119050974574</v>
+        <f t="shared" si="15"/>
+        <v>71.565802178699371</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="7"/>
-        <v>0.92759830635015506</v>
+        <f>(F40-G40)^2</f>
+        <v>2.3348505815271307E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
-        <v>6000</v>
+        <f t="shared" ref="B41" si="16">B40+500</f>
+        <v>5000</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" si="6"/>
-        <v>600000</v>
+        <f t="shared" si="13"/>
+        <v>500000</v>
       </c>
       <c r="D41" s="4">
         <f>IF(B41&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -3923,23 +3985,26 @@
         <v>13.42</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="8"/>
-        <v>91.543000000000006</v>
+        <f t="shared" si="14"/>
+        <v>78.123000000000005</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="5"/>
-        <v>94.126752795524951</v>
-      </c>
-      <c r="H41" s="4"/>
+        <f t="shared" si="15"/>
+        <v>79.086119050974574</v>
+      </c>
+      <c r="H41" s="4">
+        <f>(F41-G41)^2</f>
+        <v>0.92759830635015506</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="6"/>
-        <v>700000</v>
+        <f t="shared" si="13"/>
+        <v>600000</v>
       </c>
       <c r="D42" s="4">
         <f>IF(B42&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -3950,23 +4015,23 @@
         <v>13.42</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="8"/>
-        <v>104.96300000000001</v>
+        <f t="shared" si="14"/>
+        <v>91.543000000000006</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="5"/>
-        <v>109.16738654007534</v>
+        <f t="shared" si="15"/>
+        <v>94.126752795524951</v>
       </c>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" si="6"/>
-        <v>800000</v>
+        <f t="shared" si="13"/>
+        <v>700000</v>
       </c>
       <c r="D43" s="4">
         <f>IF(B43&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -3977,23 +4042,40 @@
         <v>13.42</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="8"/>
-        <v>118.38300000000001</v>
+        <f t="shared" si="14"/>
+        <v>104.96300000000001</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="5"/>
-        <v>124.20802028462573</v>
+        <f t="shared" si="15"/>
+        <v>109.16738654007534</v>
       </c>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
+      <c r="B44" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="13"/>
+        <v>800000</v>
+      </c>
+      <c r="D44" s="4">
+        <f>IF(B44&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
+        <v>110.23</v>
+      </c>
+      <c r="E44" s="4">
+        <f>Konstanten!$B$3+IF(Tabelle!B44&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C44&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C44-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C44)</f>
+        <v>13.42</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="14"/>
+        <v>118.38300000000001</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="15"/>
+        <v>124.20802028462573</v>
+      </c>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -4098,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" ref="C54:C66" si="10">B54*$B$50</f>
+        <f t="shared" ref="C54:C61" si="17">B54*$B$50</f>
         <v>0</v>
       </c>
       <c r="D54" s="4">
@@ -4114,7 +4196,7 @@
         <v>3.89</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" ref="G54:G66" si="11">$H$2/1000*$B$50+$H$3/100000*C54</f>
+        <f t="shared" ref="G54:G61" si="18">$H$2/1000*$B$50+$H$3/100000*C54</f>
         <v>9.7073758205565479</v>
       </c>
       <c r="H54" s="4">
@@ -4134,7 +4216,7 @@
         <v>500</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>125000</v>
       </c>
       <c r="D55" s="4">
@@ -4146,15 +4228,15 @@
         <v>17.21</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" ref="F55:F66" si="12">D55/1000*$B$50+E55/100000*C55</f>
+        <f t="shared" ref="F55:F61" si="19">D55/1000*$B$50+E55/100000*C55</f>
         <v>25.402500000000003</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>28.508168001244535</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" ref="H55:H63" si="13">(F55-G55)^2</f>
+        <f t="shared" ref="H55:H60" si="20">(F55-G55)^2</f>
         <v>9.6451737339542021</v>
       </c>
       <c r="J55" s="1" t="s">
@@ -4170,7 +4252,7 @@
         <v>1000</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>250000</v>
       </c>
       <c r="D56" s="4">
@@ -4182,15 +4264,15 @@
         <v>17.21</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>46.915000000000006</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>47.308960181932527</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.15520462494830461</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -4206,7 +4288,7 @@
         <v>1500</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>375000</v>
       </c>
       <c r="D57" s="4">
@@ -4218,15 +4300,15 @@
         <v>17.21</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>68.427500000000009</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>66.109752362620512</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>5.3719541105782422</v>
       </c>
     </row>
@@ -4235,7 +4317,7 @@
         <v>2000</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>500000</v>
       </c>
       <c r="D58" s="4">
@@ -4247,15 +4329,15 @@
         <v>17.21</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>89.940000000000012</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>84.910544543308504</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>25.295422190843986</v>
       </c>
     </row>
@@ -4264,7 +4346,7 @@
         <v>2500</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>625000</v>
       </c>
       <c r="D59" s="4">
@@ -4276,15 +4358,15 @@
         <v>13.42</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>111.4325</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>103.71133672399648</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>59.616362334705457</v>
       </c>
     </row>
@@ -4293,7 +4375,7 @@
         <v>3000</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>750000</v>
       </c>
       <c r="D60" s="4">
@@ -4305,25 +4387,25 @@
         <v>13.42</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>128.20750000000001</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>122.51212890468447</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>32.437251913355695</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="4">
-        <v>4000</v>
-      </c>
-      <c r="C61" s="4">
-        <f t="shared" si="10"/>
-        <v>1000000</v>
+      <c r="B61" s="5">
+        <v>3500</v>
+      </c>
+      <c r="C61" s="5">
+        <f t="shared" si="17"/>
+        <v>875000</v>
       </c>
       <c r="D61" s="4">
         <f>IF(B61&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -4334,26 +4416,25 @@
         <v>13.42</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="12"/>
-        <v>161.75750000000002</v>
-      </c>
-      <c r="G61" s="4">
-        <f t="shared" si="11"/>
-        <v>160.11371326606044</v>
+        <f t="shared" si="19"/>
+        <v>144.98250000000002</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" si="18"/>
+        <v>141.31292108537244</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="13"/>
+        <f>(F62-G62)^2</f>
         <v>2.702034826675745</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
-        <f>B61+500</f>
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="10"/>
-        <v>1125000</v>
+        <f t="shared" ref="C62:C67" si="21">B62*$B$50</f>
+        <v>1000000</v>
       </c>
       <c r="D62" s="4">
         <f>IF(B62&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -4361,29 +4442,29 @@
       </c>
       <c r="E62" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B62&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C62&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C62-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C62)</f>
-        <v>13.385777777777777</v>
+        <v>13.42</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="12"/>
-        <v>178.14750000000001</v>
+        <f t="shared" ref="F62:F67" si="22">D62/1000*$B$50+E62/100000*C62</f>
+        <v>161.75750000000002</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" si="11"/>
-        <v>178.91450544674842</v>
+        <f t="shared" ref="G62:G67" si="23">$H$2/1000*$B$50+$H$3/100000*C62</f>
+        <v>160.11371326606044</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="13"/>
+        <f>(F63-G63)^2</f>
         <v>0.58829735534173344</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
-        <f t="shared" ref="B63" si="14">B62+500</f>
-        <v>5000</v>
+        <f>B62+500</f>
+        <v>4500</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" si="10"/>
-        <v>1250000</v>
+        <f t="shared" si="21"/>
+        <v>1125000</v>
       </c>
       <c r="D63" s="4">
         <f>IF(B63&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -4391,28 +4472,29 @@
       </c>
       <c r="E63" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B63&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C63&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C63-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C63)</f>
-        <v>13.3584</v>
+        <v>13.385777777777777</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="12"/>
-        <v>194.53749999999999</v>
+        <f t="shared" si="22"/>
+        <v>178.14750000000001</v>
       </c>
       <c r="G63" s="4">
-        <f t="shared" si="11"/>
-        <v>197.7152976274364</v>
+        <f t="shared" si="23"/>
+        <v>178.91450544674842</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="13"/>
+        <f>(F64-G64)^2</f>
         <v>10.098397760940445</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
-        <v>6000</v>
+        <f t="shared" ref="B64" si="24">B63+500</f>
+        <v>5000</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="10"/>
-        <v>1500000</v>
+        <f t="shared" si="21"/>
+        <v>1250000</v>
       </c>
       <c r="D64" s="4">
         <f>IF(B64&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -4420,26 +4502,26 @@
       </c>
       <c r="E64" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B64&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C64&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C64-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C64)</f>
-        <v>13.317333333333334</v>
+        <v>13.3584</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" si="12"/>
-        <v>227.31750000000002</v>
+        <f t="shared" si="22"/>
+        <v>194.53749999999999</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" si="11"/>
-        <v>235.31688198881238</v>
+        <f t="shared" si="23"/>
+        <v>197.7152976274364</v>
       </c>
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" si="10"/>
-        <v>1750000</v>
+        <f t="shared" si="21"/>
+        <v>1500000</v>
       </c>
       <c r="D65" s="4">
         <f>IF(B65&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -4447,26 +4529,26 @@
       </c>
       <c r="E65" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B65&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C65&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C65-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C65)</f>
-        <v>13.288</v>
+        <v>13.317333333333334</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="12"/>
-        <v>260.09750000000003</v>
+        <f t="shared" si="22"/>
+        <v>227.31750000000002</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" si="11"/>
-        <v>272.91846635018834</v>
+        <f t="shared" si="23"/>
+        <v>235.31688198881238</v>
       </c>
       <c r="H65" s="4"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" si="10"/>
-        <v>2000000</v>
+        <f t="shared" si="21"/>
+        <v>1750000</v>
       </c>
       <c r="D66" s="4">
         <f>IF(B66&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -4474,15 +4556,15 @@
       </c>
       <c r="E66" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B66&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C66&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C66-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C66)</f>
-        <v>13.266</v>
+        <v>13.288</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="12"/>
-        <v>292.8775</v>
+        <f t="shared" si="22"/>
+        <v>260.09750000000003</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" si="11"/>
-        <v>310.52005071156435</v>
+        <f t="shared" si="23"/>
+        <v>272.91846635018834</v>
       </c>
       <c r="H66" s="4"/>
       <c r="O66" s="2"/>
@@ -4490,12 +4572,29 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="B67" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" si="21"/>
+        <v>2000000</v>
+      </c>
+      <c r="D67" s="4">
+        <f>IF(B67&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
+        <v>110.23</v>
+      </c>
+      <c r="E67" s="4">
+        <f>Konstanten!$B$3+IF(Tabelle!B67&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C67&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C67-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C67)</f>
+        <v>13.266</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="22"/>
+        <v>292.8775</v>
+      </c>
+      <c r="G67" s="4">
+        <f t="shared" si="23"/>
+        <v>310.52005071156435</v>
+      </c>
       <c r="H67" s="4"/>
       <c r="O67" s="2"/>
       <c r="P67" s="3"/>
@@ -4593,7 +4692,7 @@
         <v>7.78</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" ref="G77:G89" si="15">$H$2/1000*$B$73+$H$3/100000*C77</f>
+        <f t="shared" ref="G77:G84" si="25">$H$2/1000*$B$73+$H$3/100000*C77</f>
         <v>19.414751641113096</v>
       </c>
       <c r="H77" s="4">
@@ -4613,7 +4712,7 @@
         <v>500</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" ref="C78:C89" si="16">B78*$B$73</f>
+        <f t="shared" ref="C78:C84" si="26">B78*$B$73</f>
         <v>250000</v>
       </c>
       <c r="D78" s="4">
@@ -4625,15 +4724,15 @@
         <v>17.21</v>
       </c>
       <c r="F78" s="3">
-        <f t="shared" ref="F78:F89" si="17">D78/1000*$B$73+E78/100000*C78</f>
+        <f t="shared" ref="F78:F84" si="27">D78/1000*$B$73+E78/100000*C78</f>
         <v>50.805000000000007</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>57.016336002489069</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" ref="H78:H86" si="18">(F78-G78)^2</f>
+        <f t="shared" ref="H78:H83" si="28">(F78-G78)^2</f>
         <v>38.580694935816808</v>
       </c>
       <c r="J78" s="1" t="s">
@@ -4649,7 +4748,7 @@
         <v>1000</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>500000</v>
       </c>
       <c r="D79" s="4">
@@ -4661,15 +4760,15 @@
         <v>17.21</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>93.830000000000013</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>94.617920363865053</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0.62081849979321846</v>
       </c>
       <c r="J79" s="1" t="s">
@@ -4685,7 +4784,7 @@
         <v>1500</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>750000</v>
       </c>
       <c r="D80" s="4">
@@ -4697,15 +4796,15 @@
         <v>17.21</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>136.85500000000002</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>132.21950472524102</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>21.487816442312969</v>
       </c>
     </row>
@@ -4714,7 +4813,7 @@
         <v>2000</v>
       </c>
       <c r="C81" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1000000</v>
       </c>
       <c r="D81" s="4">
@@ -4726,15 +4825,15 @@
         <v>17.21</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>179.88000000000002</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>169.82108908661701</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>101.18168876337594</v>
       </c>
     </row>
@@ -4743,7 +4842,7 @@
         <v>2500</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1250000</v>
       </c>
       <c r="D82" s="4">
@@ -4755,15 +4854,15 @@
         <v>13.3584</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>222.095</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>207.42267344799296</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>215.27716644873067</v>
       </c>
     </row>
@@ -4772,7 +4871,7 @@
         <v>3000</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1500000</v>
       </c>
       <c r="D83" s="4">
@@ -4784,25 +4883,25 @@
         <v>13.317333333333334</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>254.87500000000003</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>245.02425780936895</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>97.037121706279223</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="4">
-        <v>4000</v>
-      </c>
-      <c r="C84" s="4">
-        <f t="shared" si="16"/>
-        <v>2000000</v>
+      <c r="B84" s="5">
+        <v>3500</v>
+      </c>
+      <c r="C84" s="5">
+        <f t="shared" si="26"/>
+        <v>1750000</v>
       </c>
       <c r="D84" s="4">
         <f>IF(B84&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -4810,29 +4909,24 @@
       </c>
       <c r="E84" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B84&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C84&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C84-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C84)</f>
-        <v>13.266</v>
+        <v>13.288</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" si="17"/>
-        <v>320.435</v>
-      </c>
-      <c r="G84" s="4">
-        <f t="shared" si="15"/>
-        <v>320.22742653212089</v>
-      </c>
-      <c r="H84" s="4">
-        <f t="shared" si="18"/>
-        <v>4.3086744567361994E-2</v>
+        <f t="shared" si="27"/>
+        <v>287.65500000000003</v>
+      </c>
+      <c r="G84" s="5">
+        <f t="shared" si="25"/>
+        <v>282.62584217074487</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" s="4">
-        <f>B84+500</f>
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" si="16"/>
-        <v>2250000</v>
+        <f t="shared" ref="C85:C90" si="29">B85*$B$73</f>
+        <v>2000000</v>
       </c>
       <c r="D85" s="4">
         <f>IF(B85&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -4840,29 +4934,29 @@
       </c>
       <c r="E85" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B85&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C85&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C85-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C85)</f>
-        <v>13.248888888888889</v>
+        <v>13.266</v>
       </c>
       <c r="F85" s="3">
-        <f t="shared" si="17"/>
-        <v>353.21500000000003</v>
+        <f t="shared" ref="F85:F90" si="30">D85/1000*$B$73+E85/100000*C85</f>
+        <v>320.435</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="15"/>
-        <v>357.82901089349684</v>
+        <f t="shared" ref="G85:G90" si="31">$H$2/1000*$B$73+$H$3/100000*C85</f>
+        <v>320.22742653212089</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="18"/>
-        <v>21.28909652530724</v>
+        <f>(F85-G85)^2</f>
+        <v>4.3086744567361994E-2</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B86" s="4">
-        <f t="shared" ref="B86" si="19">B85+500</f>
-        <v>5000</v>
+        <f>B85+500</f>
+        <v>4500</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" si="16"/>
-        <v>2500000</v>
+        <f t="shared" si="29"/>
+        <v>2250000</v>
       </c>
       <c r="D86" s="4">
         <f>IF(B86&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -4870,28 +4964,29 @@
       </c>
       <c r="E86" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B86&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C86&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C86-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C86)</f>
-        <v>13.235200000000001</v>
+        <v>13.248888888888889</v>
       </c>
       <c r="F86" s="3">
-        <f t="shared" si="17"/>
-        <v>385.995</v>
+        <f t="shared" si="30"/>
+        <v>353.21500000000003</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="15"/>
-        <v>395.4305952548728</v>
+        <f t="shared" si="31"/>
+        <v>357.82901089349684</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="18"/>
-        <v>89.030457813777986</v>
+        <f>(F86-G86)^2</f>
+        <v>21.28909652530724</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="4">
-        <v>6000</v>
+        <f t="shared" ref="B87" si="32">B86+500</f>
+        <v>5000</v>
       </c>
       <c r="C87" s="4">
-        <f t="shared" si="16"/>
-        <v>3000000</v>
+        <f t="shared" si="29"/>
+        <v>2500000</v>
       </c>
       <c r="D87" s="4">
         <f>IF(B87&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -4899,26 +4994,29 @@
       </c>
       <c r="E87" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B87&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C87&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C87-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C87)</f>
-        <v>13.214666666666666</v>
+        <v>13.235200000000001</v>
       </c>
       <c r="F87" s="3">
-        <f t="shared" si="17"/>
-        <v>451.55500000000001</v>
+        <f t="shared" si="30"/>
+        <v>385.995</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="15"/>
-        <v>470.63376397762477</v>
-      </c>
-      <c r="H87" s="4"/>
+        <f t="shared" si="31"/>
+        <v>395.4305952548728</v>
+      </c>
+      <c r="H87" s="4">
+        <f>(F87-G87)^2</f>
+        <v>89.030457813777986</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" si="16"/>
-        <v>3500000</v>
+        <f t="shared" si="29"/>
+        <v>3000000</v>
       </c>
       <c r="D88" s="4">
         <f>IF(B88&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -4926,26 +5024,26 @@
       </c>
       <c r="E88" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B88&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C88&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C88-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C88)</f>
-        <v>13.2</v>
+        <v>13.214666666666666</v>
       </c>
       <c r="F88" s="3">
-        <f t="shared" si="17"/>
-        <v>517.1149999999999</v>
+        <f t="shared" si="30"/>
+        <v>451.55500000000001</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="15"/>
-        <v>545.83693270037668</v>
+        <f t="shared" si="31"/>
+        <v>470.63376397762477</v>
       </c>
       <c r="H88" s="4"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" si="16"/>
-        <v>4000000</v>
+        <f t="shared" si="29"/>
+        <v>3500000</v>
       </c>
       <c r="D89" s="4">
         <f>IF(B89&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
@@ -4953,26 +5051,43 @@
       </c>
       <c r="E89" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B89&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C89&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C89-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C89)</f>
-        <v>13.189</v>
+        <v>13.2</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" si="17"/>
-        <v>582.67500000000007</v>
+        <f t="shared" si="30"/>
+        <v>517.1149999999999</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="15"/>
-        <v>621.0401014231287</v>
+        <f t="shared" si="31"/>
+        <v>545.83693270037668</v>
       </c>
       <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="4"/>
+      <c r="B90" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C90" s="4">
+        <f t="shared" si="29"/>
+        <v>4000000</v>
+      </c>
+      <c r="D90" s="4">
+        <f>IF(B90&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
+        <v>110.23</v>
+      </c>
+      <c r="E90" s="4">
+        <f>Konstanten!$B$3+IF(Tabelle!B90&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C90&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C90-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C90)</f>
+        <v>13.189</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="30"/>
+        <v>582.67500000000007</v>
+      </c>
+      <c r="G90" s="4">
+        <f t="shared" si="31"/>
+        <v>621.0401014231287</v>
+      </c>
       <c r="H90" s="4"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -5077,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="4">
-        <f t="shared" ref="C100:C106" si="20">B100*$B$96</f>
+        <f t="shared" ref="C100:C106" si="33">B100*$B$96</f>
         <v>0</v>
       </c>
       <c r="D100" s="4">
@@ -5089,15 +5204,15 @@
         <v>17.21</v>
       </c>
       <c r="F100" s="3">
-        <f t="shared" ref="F100:F109" si="21">D100/1000*$B$96+E100/100000*C100</f>
+        <f t="shared" ref="F100:F109" si="34">D100/1000*$B$96+E100/100000*C100</f>
         <v>11.67</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" ref="G100:G112" si="22">$H$2/1000*$B$96+$H$3/100000*C100</f>
+        <f t="shared" ref="G100:G112" si="35">$H$2/1000*$B$96+$H$3/100000*C100</f>
         <v>29.122127461669642</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" ref="H100:H109" si="23">(F100-G100)^2</f>
+        <f t="shared" ref="H100:H109" si="36">(F100-G100)^2</f>
         <v>304.5767529383636</v>
       </c>
       <c r="J100" s="4" t="s">
@@ -5113,7 +5228,7 @@
         <v>500</v>
       </c>
       <c r="C101" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>375000</v>
       </c>
       <c r="D101" s="4">
@@ -5125,11 +5240,11 @@
         <v>17.21</v>
       </c>
       <c r="F101" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>76.20750000000001</v>
       </c>
       <c r="G101" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>85.524504003733597</v>
       </c>
       <c r="H101" s="4">
@@ -5149,7 +5264,7 @@
         <v>1000</v>
       </c>
       <c r="C102" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>750000</v>
       </c>
       <c r="D102" s="4">
@@ -5161,15 +5276,15 @@
         <v>17.21</v>
       </c>
       <c r="F102" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>140.745</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>141.92688054579756</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>1.3968416245347248</v>
       </c>
       <c r="J102" s="1" t="s">
@@ -5185,7 +5300,7 @@
         <v>1500</v>
       </c>
       <c r="C103" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>1125000</v>
       </c>
       <c r="D103" s="4">
@@ -5197,11 +5312,11 @@
         <v>17.175777777777778</v>
       </c>
       <c r="F103" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>204.89750000000001</v>
       </c>
       <c r="G103" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>198.32925708786152</v>
       </c>
       <c r="H103" s="4">
@@ -5214,7 +5329,7 @@
         <v>2000</v>
       </c>
       <c r="C104" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>1500000</v>
       </c>
       <c r="D104" s="4">
@@ -5226,15 +5341,15 @@
         <v>17.107333333333333</v>
       </c>
       <c r="F104" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>268.28000000000003</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>254.73163362992548</v>
       </c>
       <c r="H104" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>183.55823129776695</v>
       </c>
     </row>
@@ -5243,7 +5358,7 @@
         <v>2500</v>
       </c>
       <c r="C105" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>1875000</v>
       </c>
       <c r="D105" s="4">
@@ -5255,15 +5370,15 @@
         <v>13.276266666666666</v>
       </c>
       <c r="F105" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>331.60250000000002</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>311.13401017198947</v>
       </c>
       <c r="H105" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>418.95907583937122</v>
       </c>
     </row>
@@ -5272,7 +5387,7 @@
         <v>3000</v>
       </c>
       <c r="C106" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>2250000</v>
       </c>
       <c r="D106" s="4">
@@ -5284,15 +5399,15 @@
         <v>13.248888888888889</v>
       </c>
       <c r="F106" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>380.77250000000004</v>
       </c>
       <c r="G106" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>367.53638671405344</v>
       </c>
       <c r="H106" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>175.19469491841213</v>
       </c>
     </row>
@@ -5313,15 +5428,15 @@
         <v>13.214666666666666</v>
       </c>
       <c r="F107" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>479.11250000000001</v>
       </c>
       <c r="G107" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>480.34113979818136</v>
       </c>
       <c r="H107" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>1.5095557536751034</v>
       </c>
     </row>
@@ -5330,7 +5445,7 @@
         <v>4500</v>
       </c>
       <c r="C108" s="4">
-        <f t="shared" ref="C108:C112" si="24">B108*$B$96</f>
+        <f t="shared" ref="C108:C112" si="37">B108*$B$96</f>
         <v>3375000</v>
       </c>
       <c r="D108" s="4">
@@ -5342,15 +5457,15 @@
         <v>13.203259259259259</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>528.28250000000003</v>
       </c>
       <c r="G108" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>536.74351634024526</v>
       </c>
       <c r="H108" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>71.588797509896906</v>
       </c>
     </row>
@@ -5359,7 +5474,7 @@
         <v>5000</v>
       </c>
       <c r="C109" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>3750000</v>
       </c>
       <c r="D109" s="4">
@@ -5371,15 +5486,15 @@
         <v>13.194133333333333</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="34"/>
         <v>577.45249999999999</v>
       </c>
       <c r="G109" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>593.14589288230923</v>
       </c>
       <c r="H109" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>246.28258015851432</v>
       </c>
     </row>
@@ -5388,14 +5503,14 @@
         <v>6000</v>
       </c>
       <c r="C110" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>4500000</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
       <c r="G110" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>705.95064596643715</v>
       </c>
       <c r="H110" s="4"/>
@@ -5406,14 +5521,14 @@
         <v>7000</v>
       </c>
       <c r="C111" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>5250000</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
       <c r="G111" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>818.75539905056507</v>
       </c>
       <c r="H111" s="4"/>
@@ -5424,14 +5539,14 @@
         <v>8000</v>
       </c>
       <c r="C112" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>6000000</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
       <c r="G112" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="35"/>
         <v>931.560152134693</v>
       </c>
       <c r="H112" s="4"/>
@@ -5548,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="C123" s="4">
-        <f t="shared" ref="C123:C135" si="25">B123*$B$119</f>
+        <f t="shared" ref="C123:C135" si="38">B123*$B$119</f>
         <v>0</v>
       </c>
       <c r="D123" s="4">
@@ -5564,11 +5679,11 @@
         <v>15.56</v>
       </c>
       <c r="G123" s="4">
-        <f t="shared" ref="G123:G135" si="26">$H$2/1000*$B$119+$H$3/100000*C123</f>
+        <f t="shared" ref="G123:G135" si="39">$H$2/1000*$B$119+$H$3/100000*C123</f>
         <v>38.829503282226192</v>
       </c>
       <c r="H123" s="4">
-        <f t="shared" ref="H123:H132" si="27">(F123-G123)^2</f>
+        <f t="shared" ref="H123:H132" si="40">(F123-G123)^2</f>
         <v>541.46978300153535</v>
       </c>
       <c r="J123" s="4" t="s">
@@ -5584,7 +5699,7 @@
         <v>500</v>
       </c>
       <c r="C124" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>500000</v>
       </c>
       <c r="D124" s="4">
@@ -5596,15 +5711,15 @@
         <v>17.21</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" ref="F124:F135" si="28">D124/1000*$B$119+E124/100000*C124</f>
+        <f t="shared" ref="F124:F135" si="41">D124/1000*$B$119+E124/100000*C124</f>
         <v>101.61000000000001</v>
       </c>
       <c r="G124" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>114.03267200497814</v>
       </c>
       <c r="H124" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>154.32277974326723</v>
       </c>
       <c r="J124" s="1" t="s">
@@ -5620,7 +5735,7 @@
         <v>1000</v>
       </c>
       <c r="C125" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>1000000</v>
       </c>
       <c r="D125" s="4">
@@ -5632,15 +5747,15 @@
         <v>17.21</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>187.66000000000003</v>
       </c>
       <c r="G125" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>189.23584072773011</v>
       </c>
       <c r="H125" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>2.4832739991728738</v>
       </c>
       <c r="J125" s="1" t="s">
@@ -5668,11 +5783,11 @@
         <v>17.107333333333333</v>
       </c>
       <c r="F126" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>272.17</v>
       </c>
       <c r="G126" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>264.43900945048205</v>
       </c>
       <c r="H126" s="4">
@@ -5685,7 +5800,7 @@
         <v>2000</v>
       </c>
       <c r="C127" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>2000000</v>
       </c>
       <c r="D127" s="4">
@@ -5697,15 +5812,15 @@
         <v>17.056000000000001</v>
       </c>
       <c r="F127" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>356.68000000000006</v>
       </c>
       <c r="G127" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>339.64217817323402</v>
       </c>
       <c r="H127" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>290.28737260062559</v>
       </c>
     </row>
@@ -5730,11 +5845,11 @@
         <v>441.11</v>
       </c>
       <c r="G128" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>414.84534689598593</v>
       </c>
       <c r="H128" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>689.83200267419681</v>
       </c>
     </row>
@@ -5743,7 +5858,7 @@
         <v>3000</v>
       </c>
       <c r="C129" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>3000000</v>
       </c>
       <c r="D129" s="4">
@@ -5759,11 +5874,11 @@
         <v>506.67</v>
       </c>
       <c r="G129" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>490.04851561873789</v>
       </c>
       <c r="H129" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>276.27374303654062</v>
       </c>
     </row>
@@ -5772,7 +5887,7 @@
         <v>4000</v>
       </c>
       <c r="C130" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>4000000</v>
       </c>
       <c r="D130" s="4">
@@ -5784,11 +5899,11 @@
         <v>13.189</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>637.79000000000008</v>
       </c>
       <c r="G130" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>640.45485306424177</v>
       </c>
       <c r="H130" s="4">
@@ -5802,7 +5917,7 @@
         <v>4500</v>
       </c>
       <c r="C131" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>4500000</v>
       </c>
       <c r="D131" s="4">
@@ -5814,25 +5929,25 @@
         <v>13.180444444444444</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>703.34999999999991</v>
       </c>
       <c r="G131" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>715.65802178699369</v>
       </c>
       <c r="H131" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>151.4874003091135</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B132" s="4">
-        <f t="shared" ref="B132" si="29">B131+500</f>
+        <f t="shared" ref="B132" si="42">B131+500</f>
         <v>5000</v>
       </c>
       <c r="C132" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>5000000</v>
       </c>
       <c r="D132" s="4">
@@ -5844,15 +5959,15 @@
         <v>13.1736</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>768.91</v>
       </c>
       <c r="G132" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>790.8611905097456</v>
       </c>
       <c r="H132" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="40"/>
         <v>481.85476479514659</v>
       </c>
     </row>
@@ -5861,7 +5976,7 @@
         <v>6000</v>
       </c>
       <c r="C133" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>6000000</v>
       </c>
       <c r="D133" s="4">
@@ -5873,11 +5988,11 @@
         <v>13.163333333333334</v>
       </c>
       <c r="F133" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>900.03000000000009</v>
       </c>
       <c r="G133" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>941.26752795524953</v>
       </c>
       <c r="H133" s="4"/>
@@ -5888,7 +6003,7 @@
         <v>7000</v>
       </c>
       <c r="C134" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>7000000</v>
       </c>
       <c r="D134" s="4">
@@ -5900,11 +6015,11 @@
         <v>13.156000000000001</v>
       </c>
       <c r="F134" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>1031.1499999999999</v>
       </c>
       <c r="G134" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>1091.6738654007534</v>
       </c>
       <c r="H134" s="4"/>
@@ -5915,7 +6030,7 @@
         <v>8000</v>
       </c>
       <c r="C135" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>8000000</v>
       </c>
       <c r="D135" s="4">
@@ -5927,11 +6042,11 @@
         <v>13.150499999999999</v>
       </c>
       <c r="F135" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>1162.27</v>
       </c>
       <c r="G135" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>1242.0802028462574</v>
       </c>
       <c r="H135" s="4"/>
@@ -6040,7 +6155,7 @@
         <v>23.34</v>
       </c>
       <c r="G147" s="4">
-        <f t="shared" ref="G147:G159" si="30">$H$2/1000*$B$143+$H$3/100000*C147</f>
+        <f t="shared" ref="G147:G159" si="43">$H$2/1000*$B$143+$H$3/100000*C147</f>
         <v>58.244254923339284</v>
       </c>
       <c r="H147" s="4"/>
@@ -6052,7 +6167,7 @@
         <v>500</v>
       </c>
       <c r="C148" s="4">
-        <f t="shared" ref="C148:C159" si="31">B148*$B$143</f>
+        <f t="shared" ref="C148:C159" si="44">B148*$B$143</f>
         <v>750000</v>
       </c>
       <c r="D148" s="4">
@@ -6064,11 +6179,11 @@
         <v>17.21</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" ref="F148:F156" si="32">D148/1000*$B$143+E148/100000*C148</f>
+        <f t="shared" ref="F148:F156" si="45">D148/1000*$B$143+E148/100000*C148</f>
         <v>152.41500000000002</v>
       </c>
       <c r="G148" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>171.04900800746719</v>
       </c>
       <c r="H148" s="4"/>
@@ -6080,7 +6195,7 @@
         <v>1000</v>
       </c>
       <c r="C149" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>1500000</v>
       </c>
       <c r="D149" s="4">
@@ -6092,11 +6207,11 @@
         <v>17.107333333333333</v>
       </c>
       <c r="F149" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>279.95</v>
       </c>
       <c r="G149" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>283.85376109159512</v>
       </c>
       <c r="H149" s="4"/>
@@ -6106,7 +6221,7 @@
         <v>1500</v>
       </c>
       <c r="C150" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>2250000</v>
       </c>
       <c r="D150" s="4">
@@ -6118,11 +6233,11 @@
         <v>17.038888888888891</v>
       </c>
       <c r="F150" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>406.71500000000003</v>
       </c>
       <c r="G150" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>396.65851417572304</v>
       </c>
       <c r="H150" s="4"/>
@@ -6132,7 +6247,7 @@
         <v>2000</v>
       </c>
       <c r="C151" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>3000000</v>
       </c>
       <c r="D151" s="4">
@@ -6144,11 +6259,11 @@
         <v>17.004666666666669</v>
       </c>
       <c r="F151" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>533.48000000000013</v>
       </c>
       <c r="G151" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>509.46326725985097</v>
       </c>
       <c r="H151" s="4"/>
@@ -6158,7 +6273,7 @@
         <v>2500</v>
       </c>
       <c r="C152" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>3750000</v>
       </c>
       <c r="D152" s="4">
@@ -6170,11 +6285,11 @@
         <v>13.194133333333333</v>
       </c>
       <c r="F152" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>660.125</v>
       </c>
       <c r="G152" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>622.26802034397895</v>
       </c>
       <c r="H152" s="4"/>
@@ -6184,7 +6299,7 @@
         <v>3000</v>
       </c>
       <c r="C153" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>4500000</v>
       </c>
       <c r="D153" s="4">
@@ -6196,11 +6311,11 @@
         <v>13.180444444444444</v>
       </c>
       <c r="F153" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>758.46499999999992</v>
       </c>
       <c r="G153" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>735.07277342810687</v>
       </c>
       <c r="H153" s="4"/>
@@ -6210,7 +6325,7 @@
         <v>4000</v>
       </c>
       <c r="C154" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>6000000</v>
       </c>
       <c r="D154" s="4">
@@ -6222,11 +6337,11 @@
         <v>13.163333333333334</v>
       </c>
       <c r="F154" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>955.1450000000001</v>
       </c>
       <c r="G154" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>960.68227959636272</v>
       </c>
       <c r="H154" s="4"/>
@@ -6237,7 +6352,7 @@
         <v>4500</v>
       </c>
       <c r="C155" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>6750000</v>
       </c>
       <c r="D155" s="4">
@@ -6249,22 +6364,22 @@
         <v>13.15762962962963</v>
       </c>
       <c r="F155" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>1053.4850000000001</v>
       </c>
       <c r="G155" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>1073.4870326804905</v>
       </c>
       <c r="H155" s="4"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156" s="4">
-        <f t="shared" ref="B156" si="33">B155+500</f>
+        <f t="shared" ref="B156" si="46">B155+500</f>
         <v>5000</v>
       </c>
       <c r="C156" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>7500000</v>
       </c>
       <c r="D156" s="4">
@@ -6276,11 +6391,11 @@
         <v>13.153066666666666</v>
       </c>
       <c r="F156" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="45"/>
         <v>1151.8249999999998</v>
       </c>
       <c r="G156" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>1186.2917857646185</v>
       </c>
       <c r="H156" s="4"/>
@@ -6290,14 +6405,14 @@
         <v>6000</v>
       </c>
       <c r="C157" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>9000000</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="3"/>
       <c r="G157" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>1411.9012919328743</v>
       </c>
       <c r="H157" s="4"/>
@@ -6308,14 +6423,14 @@
         <v>7000</v>
       </c>
       <c r="C158" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>10500000</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="3"/>
       <c r="G158" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>1637.5107981011301</v>
       </c>
       <c r="H158" s="4"/>
@@ -6326,14 +6441,14 @@
         <v>8000</v>
       </c>
       <c r="C159" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="44"/>
         <v>12000000</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="3"/>
       <c r="G159" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="43"/>
         <v>1863.120304269386</v>
       </c>
       <c r="H159" s="4"/>
@@ -6424,7 +6539,7 @@
         <v>46.68</v>
       </c>
       <c r="G168" s="4">
-        <f t="shared" ref="G168:G180" si="34">$H$2/1000*$B$164+$H$3/100000*C168</f>
+        <f t="shared" ref="G168:G180" si="47">$H$2/1000*$B$164+$H$3/100000*C168</f>
         <v>116.48850984667857</v>
       </c>
     </row>
@@ -6434,7 +6549,7 @@
         <v>500</v>
       </c>
       <c r="C169" s="4">
-        <f t="shared" ref="C169:C180" si="35">B169*$B$164</f>
+        <f t="shared" ref="C169:C180" si="48">B169*$B$164</f>
         <v>1500000</v>
       </c>
       <c r="D169" s="4">
@@ -6446,11 +6561,11 @@
         <v>17.107333333333333</v>
       </c>
       <c r="F169" s="3">
-        <f t="shared" ref="F169:F180" si="36">D169/1000*$B$164+E169/100000*C169</f>
+        <f t="shared" ref="F169:F180" si="49">D169/1000*$B$164+E169/100000*C169</f>
         <v>303.29000000000002</v>
       </c>
       <c r="G169" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>342.09801601493439</v>
       </c>
     </row>
@@ -6460,7 +6575,7 @@
         <v>1000</v>
       </c>
       <c r="C170" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>3000000</v>
       </c>
       <c r="D170" s="4">
@@ -6472,11 +6587,11 @@
         <v>17.004666666666669</v>
       </c>
       <c r="F170" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>556.82000000000005</v>
       </c>
       <c r="G170" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>567.70752218319024</v>
       </c>
     </row>
@@ -6485,7 +6600,7 @@
         <v>1500</v>
       </c>
       <c r="C171" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>4500000</v>
       </c>
       <c r="D171" s="4">
@@ -6497,11 +6612,11 @@
         <v>16.970444444444446</v>
       </c>
       <c r="F171" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>810.35</v>
       </c>
       <c r="G171" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>793.31702835144608</v>
       </c>
     </row>
@@ -6510,7 +6625,7 @@
         <v>2000</v>
       </c>
       <c r="C172" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>6000000</v>
       </c>
       <c r="D172" s="4">
@@ -6522,11 +6637,11 @@
         <v>16.953333333333333</v>
       </c>
       <c r="F172" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>1063.8799999999999</v>
       </c>
       <c r="G172" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>1018.9265345197019</v>
       </c>
     </row>
@@ -6535,7 +6650,7 @@
         <v>2500</v>
       </c>
       <c r="C173" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>7500000</v>
       </c>
       <c r="D173" s="4">
@@ -6547,11 +6662,11 @@
         <v>13.153066666666666</v>
       </c>
       <c r="F173" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>1317.1699999999998</v>
       </c>
       <c r="G173" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>1244.5360406879579</v>
       </c>
     </row>
@@ -6560,7 +6675,7 @@
         <v>3000</v>
       </c>
       <c r="C174" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>9000000</v>
       </c>
       <c r="D174" s="4">
@@ -6572,11 +6687,11 @@
         <v>13.146222222222223</v>
       </c>
       <c r="F174" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>1513.8500000000001</v>
       </c>
       <c r="G174" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>1470.1455468562137</v>
       </c>
     </row>
@@ -6585,7 +6700,7 @@
         <v>4000</v>
       </c>
       <c r="C175" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>12000000</v>
       </c>
       <c r="D175" s="4">
@@ -6597,11 +6712,11 @@
         <v>13.137666666666666</v>
       </c>
       <c r="F175" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>1907.21</v>
       </c>
       <c r="G175" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>1921.3645591927254</v>
       </c>
     </row>
@@ -6611,7 +6726,7 @@
         <v>4500</v>
       </c>
       <c r="C176" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>13500000</v>
       </c>
       <c r="D176" s="4">
@@ -6623,21 +6738,21 @@
         <v>13.134814814814815</v>
       </c>
       <c r="F176" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>2103.89</v>
       </c>
       <c r="G176" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>2146.9740653609811</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B177" s="4">
-        <f t="shared" ref="B177" si="37">B176+500</f>
+        <f t="shared" ref="B177" si="50">B176+500</f>
         <v>5000</v>
       </c>
       <c r="C177" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>15000000</v>
       </c>
       <c r="D177" s="4">
@@ -6649,11 +6764,11 @@
         <v>13.132533333333333</v>
       </c>
       <c r="F177" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>2300.5699999999997</v>
       </c>
       <c r="G177" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>2372.5835715292369</v>
       </c>
     </row>
@@ -6662,7 +6777,7 @@
         <v>6000</v>
       </c>
       <c r="C178" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>18000000</v>
       </c>
       <c r="D178" s="4">
@@ -6674,11 +6789,11 @@
         <v>13.129111111111111</v>
       </c>
       <c r="F178" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>2693.93</v>
       </c>
       <c r="G178" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>2823.8025838657486</v>
       </c>
     </row>
@@ -6688,7 +6803,7 @@
         <v>7000</v>
       </c>
       <c r="C179" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>21000000</v>
       </c>
       <c r="D179" s="4">
@@ -6700,11 +6815,11 @@
         <v>13.126666666666667</v>
       </c>
       <c r="F179" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>3087.29</v>
       </c>
       <c r="G179" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>3275.0215962022603</v>
       </c>
     </row>
@@ -6714,7 +6829,7 @@
         <v>8000</v>
       </c>
       <c r="C180" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>24000000</v>
       </c>
       <c r="D180" s="4">
@@ -6726,11 +6841,11 @@
         <v>13.124833333333333</v>
       </c>
       <c r="F180" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>3480.65</v>
       </c>
       <c r="G180" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="47"/>
         <v>3726.240608538772</v>
       </c>
     </row>

--- a/Linearisierungen/Strombezug.xlsx
+++ b/Linearisierungen/Strombezug.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe"/>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_5B8D24C4888485FE58F42C498F87E25B2C1BE759" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{FF257A51-183C-4170-BD20-219344C7E823}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E7DD29F947AC776B7AFD50F494278569911525FC" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{F54EEC53-C46B-4697-88FD-7100C8991DD3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle" sheetId="1" r:id="rId1"/>
@@ -217,10 +217,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7083099848048337E-2"/>
-          <c:y val="2.3433267322257041E-2"/>
-          <c:w val="0.88270941911152989"/>
-          <c:h val="0.87893615140135584"/>
+          <c:x val="8.7083099848048309E-2"/>
+          <c:y val="2.3433267322257052E-2"/>
+          <c:w val="0.88270941911153011"/>
+          <c:h val="0.87893615140135561"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -310,43 +310,43 @@
                   <c:v>1.556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.161000000000001</c:v>
+                  <c:v>10.4175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.766000000000002</c:v>
+                  <c:v>19.279</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.371000000000002</c:v>
+                  <c:v>28.140499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.975999999999999</c:v>
+                  <c:v>37.001999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.573000000000008</c:v>
+                  <c:v>45.855500000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.283000000000008</c:v>
+                  <c:v>52.822000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.993000000000009</c:v>
+                  <c:v>59.788500000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.703000000000003</c:v>
+                  <c:v>66.75500000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.413000000000011</c:v>
+                  <c:v>73.721500000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78.123000000000005</c:v>
+                  <c:v>80.688000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91.543000000000006</c:v>
+                  <c:v>94.620999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>104.96300000000001</c:v>
+                  <c:v>108.554</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>118.38300000000001</c:v>
+                  <c:v>122.48700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,43 +442,43 @@
                   <c:v>3.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.402500000000003</c:v>
+                  <c:v>26.043749999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.915000000000006</c:v>
+                  <c:v>48.197499999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.427500000000009</c:v>
+                  <c:v>70.351249999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.940000000000012</c:v>
+                  <c:v>92.504999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.4325</c:v>
+                  <c:v>114.63875000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128.20750000000001</c:v>
+                  <c:v>132.05500000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>144.98250000000002</c:v>
+                  <c:v>149.47125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>161.75750000000002</c:v>
+                  <c:v>166.88750000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>178.14750000000001</c:v>
+                  <c:v>183.91874999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>194.53749999999999</c:v>
+                  <c:v>200.95</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>227.31750000000002</c:v>
+                  <c:v>235.01250000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>260.09750000000003</c:v>
+                  <c:v>269.07499999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>292.8775</c:v>
+                  <c:v>303.13749999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,43 +574,43 @@
                   <c:v>7.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.805000000000007</c:v>
+                  <c:v>52.087499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.830000000000013</c:v>
+                  <c:v>96.394999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136.85500000000002</c:v>
+                  <c:v>140.70249999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>179.88000000000002</c:v>
+                  <c:v>185.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>222.095</c:v>
+                  <c:v>228.50749999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>254.87500000000003</c:v>
+                  <c:v>262.57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>287.65500000000003</c:v>
+                  <c:v>296.63249999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>320.435</c:v>
+                  <c:v>330.69499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>353.21500000000003</c:v>
+                  <c:v>364.75750000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>385.995</c:v>
+                  <c:v>398.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>451.55500000000001</c:v>
+                  <c:v>466.94500000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>517.1149999999999</c:v>
+                  <c:v>535.06999999999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>582.67500000000007</c:v>
+                  <c:v>603.19500000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,40 +715,40 @@
                   <c:v>15.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.61000000000001</c:v>
+                  <c:v>104.175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>187.66000000000003</c:v>
+                  <c:v>192.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>272.17</c:v>
+                  <c:v>279.86499999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>356.68000000000006</c:v>
+                  <c:v>366.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>441.11</c:v>
+                  <c:v>453.935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>506.67</c:v>
+                  <c:v>522.06000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>637.79000000000008</c:v>
+                  <c:v>658.31000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>703.34999999999991</c:v>
+                  <c:v>726.43499999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>768.91</c:v>
+                  <c:v>794.56000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>900.03000000000009</c:v>
+                  <c:v>930.81</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1031.1499999999999</c:v>
+                  <c:v>1067.06</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1162.27</c:v>
+                  <c:v>1203.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -834,46 +834,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>19.414751641113096</c:v>
+                  <c:v>19.534167062006663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.016336002489069</c:v>
+                  <c:v>58.397394330491167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.617920363865053</c:v>
+                  <c:v>97.260621598975661</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132.21950472524102</c:v>
+                  <c:v>136.12384886746017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>169.82108908661701</c:v>
+                  <c:v>174.98707613594468</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>207.42267344799296</c:v>
+                  <c:v>213.85030340442916</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>245.02425780936895</c:v>
+                  <c:v>252.71353067291366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>282.62584217074487</c:v>
+                  <c:v>291.57675794139811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>320.22742653212089</c:v>
+                  <c:v>330.43998520988265</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>357.82901089349684</c:v>
+                  <c:v>369.30321247836713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>395.4305952548728</c:v>
+                  <c:v>408.16643974685161</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>470.63376397762477</c:v>
+                  <c:v>485.89289428382062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>545.83693270037668</c:v>
+                  <c:v>563.61934882078958</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>621.0401014231287</c:v>
+                  <c:v>641.34580335775865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,34 +947,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>38.829503282226192</c:v>
+                  <c:v>39.068334124013326</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114.03267200497814</c:v>
+                  <c:v>116.79478866098233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>189.23584072773011</c:v>
+                  <c:v>194.52124319795132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>264.43900945048205</c:v>
+                  <c:v>272.24769773492034</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>339.64217817323402</c:v>
+                  <c:v>349.97415227188935</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>414.84534689598593</c:v>
+                  <c:v>427.70060680885831</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>490.04851561873789</c:v>
+                  <c:v>505.42706134582733</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>640.45485306424177</c:v>
+                  <c:v>660.8799704197653</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>715.65802178699369</c:v>
+                  <c:v>738.60642495673426</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>790.8611905097456</c:v>
+                  <c:v>816.33287949370322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1099,85 +1099,85 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>19489.954809835846</c:v>
+                  <c:v>19611.893516543634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2016.6783328340616</c:v>
+                  <c:v>2031.1431607376355</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1045.9407507784067</c:v>
+                  <c:v>1054.4348076373021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>722.36155675985515</c:v>
+                  <c:v>728.86535660385778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>560.57195975057937</c:v>
+                  <c:v>566.08063108713566</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>463.4982015450139</c:v>
+                  <c:v>468.40979577710226</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>269.35068513388296</c:v>
+                  <c:v>273.06812515703564</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>172.27692692831744</c:v>
+                  <c:v>175.39728984700233</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>139.91900752646228</c:v>
+                  <c:v>142.84034474365785</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>123.74004782553469</c:v>
+                  <c:v>126.56187219198567</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>114.03267200497815</c:v>
+                  <c:v>116.79478866098232</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>101.08950424423608</c:v>
+                  <c:v>103.77201061964455</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94.617920363865039</c:v>
+                  <c:v>97.260621598975661</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>88.146336483494011</c:v>
+                  <c:v>90.749232578306774</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84.910544543308504</c:v>
+                  <c:v>87.493538067972338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82.969069379197194</c:v>
+                  <c:v>85.540121361771668</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81.674752603122982</c:v>
+                  <c:v>84.237843557637888</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>80.750240620212836</c:v>
+                  <c:v>83.307645126113769</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80.056856633030236</c:v>
+                  <c:v>82.609996302470662</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>79.51755797633264</c:v>
+                  <c:v>82.067380550748254</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>79.086119050974588</c:v>
+                  <c:v>81.633287949370327</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>78.733123566590706</c:v>
+                  <c:v>81.278121275515659</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>78.438960662937475</c:v>
+                  <c:v>80.982149047303452</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>78.19005359061552</c:v>
+                  <c:v>80.731711008046943</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77.976704671482409</c:v>
+                  <c:v>80.517049831541371</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>77.791802274900377</c:v>
+                  <c:v>80.331010145236547</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>77.630012677891088</c:v>
+                  <c:v>80.168225419719818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,67 +1284,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>808.05205540164889</c:v>
+                  <c:v>819.20437547110691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>516.83078078495225</c:v>
+                  <c:v>526.19186954100689</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>419.75702257938678</c:v>
+                  <c:v>428.52103423097361</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>371.22014347660405</c:v>
+                  <c:v>379.68561657595706</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>342.09801601493444</c:v>
+                  <c:v>350.38436598294697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>303.26851273270825</c:v>
+                  <c:v>311.31603185893363</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>283.85376109159512</c:v>
+                  <c:v>291.78186479692698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>264.43900945048205</c:v>
+                  <c:v>272.24769773492034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>254.73163362992551</c:v>
+                  <c:v>262.48061420391701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>248.9072081375916</c:v>
+                  <c:v>256.62036408531498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>245.02425780936898</c:v>
+                  <c:v>252.71353067291366</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>242.25072186063852</c:v>
+                  <c:v>249.92293537834129</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>240.17056989909071</c:v>
+                  <c:v>247.829988907412</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>238.5526739289979</c:v>
+                  <c:v>246.20214165224479</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>237.25835715292376</c:v>
+                  <c:v>244.89986384811098</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>236.19937069977212</c:v>
+                  <c:v>243.83436382654699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>235.31688198881241</c:v>
+                  <c:v>242.94644714191034</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>234.57016077184653</c:v>
+                  <c:v>242.19513302414086</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>233.93011401444721</c:v>
+                  <c:v>241.55114949462413</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>233.37540682470114</c:v>
+                  <c:v>240.99303043570967</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>232.89003803367325</c:v>
+                  <c:v>240.50467625915945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1451,67 +1451,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1346.7534256694148</c:v>
+                  <c:v>1365.3406257851782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>861.38463464158713</c:v>
+                  <c:v>876.98644923501161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>699.59503763231135</c:v>
+                  <c:v>714.20172371828937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>618.7002391276734</c:v>
+                  <c:v>632.80936095992843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>570.16336002489072</c:v>
+                  <c:v>583.97394330491159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>505.44752122118041</c:v>
+                  <c:v>518.86005309822269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>473.0896018193252</c:v>
+                  <c:v>486.3031079948783</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>440.7316824174701</c:v>
+                  <c:v>453.74616289153386</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>424.55272271654252</c:v>
+                  <c:v>437.46769033986169</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>414.84534689598598</c:v>
+                  <c:v>427.70060680885831</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>408.37376301561494</c:v>
+                  <c:v>421.18921778818941</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>403.75120310106422</c:v>
+                  <c:v>416.53822563056883</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>400.28428316515118</c:v>
+                  <c:v>413.04998151235333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>397.58778988166318</c:v>
+                  <c:v>410.3369027537413</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>395.43059525487291</c:v>
+                  <c:v>408.16643974685167</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>393.66561783295356</c:v>
+                  <c:v>406.39060637757831</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>392.19480331468736</c:v>
+                  <c:v>404.91074523651724</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>390.95026795307757</c:v>
+                  <c:v>403.65855504023477</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>389.88352335741206</c:v>
+                  <c:v>402.58524915770687</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>388.95901137450187</c:v>
+                  <c:v>401.65505072618276</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>388.15006338945545</c:v>
+                  <c:v>400.84112709859909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,46 +1597,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9.7073758205565479</c:v>
+                  <c:v>9.7670835310033315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.508168001244535</c:v>
+                  <c:v>29.198697165245584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.308960181932527</c:v>
+                  <c:v>48.63031079948783</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.109752362620512</c:v>
+                  <c:v>68.061924433730084</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.910544543308504</c:v>
+                  <c:v>87.493538067972338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103.71133672399648</c:v>
+                  <c:v>106.92515170221458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>122.51212890468447</c:v>
+                  <c:v>126.35676533645683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>141.31292108537244</c:v>
+                  <c:v>145.78837897069906</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>160.11371326606044</c:v>
+                  <c:v>165.21999260494132</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>178.91450544674842</c:v>
+                  <c:v>184.65160623918356</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>197.7152976274364</c:v>
+                  <c:v>204.0832198734258</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>235.31688198881238</c:v>
+                  <c:v>242.94644714191031</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>272.91846635018834</c:v>
+                  <c:v>281.80967441039479</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>310.52005071156435</c:v>
+                  <c:v>320.67290167887933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,46 +1722,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3.882950328222619</c:v>
+                  <c:v>3.9068334124013324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.403267200497814</c:v>
+                  <c:v>11.679478866098233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.923584072773007</c:v>
+                  <c:v>19.452124319795132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.443900945048203</c:v>
+                  <c:v>27.224769773492032</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.964217817323394</c:v>
+                  <c:v>34.997415227188931</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.484534689598597</c:v>
+                  <c:v>42.770060680885834</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.004851561873785</c:v>
+                  <c:v>50.54270613458273</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.525168434148981</c:v>
+                  <c:v>58.315351588279633</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.045485306424169</c:v>
+                  <c:v>66.087997041976521</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.565802178699371</c:v>
+                  <c:v>73.860642495673417</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79.086119050974574</c:v>
+                  <c:v>81.633287949370327</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>94.126752795524951</c:v>
+                  <c:v>97.178578856764119</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>109.16738654007534</c:v>
+                  <c:v>112.72386976415793</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>124.20802028462573</c:v>
+                  <c:v>128.26916067155173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1781,11 +1781,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104802944"/>
-        <c:axId val="104821504"/>
+        <c:axId val="96612352"/>
+        <c:axId val="96614272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104802944"/>
+        <c:axId val="96612352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8000"/>
@@ -1862,13 +1862,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104821504"/>
+        <c:crossAx val="96614272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="250"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104821504"/>
+        <c:axId val="96614272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1941,7 +1941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104802944"/>
+        <c:crossAx val="96612352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="25"/>
@@ -1972,10 +1972,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Diagramm2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -2066,12 +2066,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.77088</cdr:x>
-      <cdr:y>0.38677</cdr:y>
+      <cdr:x>0.77804</cdr:x>
+      <cdr:y>0.37407</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.86911</cdr:x>
-      <cdr:y>0.44257</cdr:y>
+      <cdr:x>0.87627</cdr:x>
+      <cdr:y>0.42987</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2086,8 +2086,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20277179">
-          <a:off x="7175500" y="2327276"/>
-          <a:ext cx="914400" cy="335760"/>
+          <a:off x="7240427" y="2244710"/>
+          <a:ext cx="914121" cy="334842"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2171,12 +2171,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.64399</cdr:x>
-      <cdr:y>0.07968</cdr:y>
+      <cdr:x>0.6399</cdr:x>
+      <cdr:y>0.06381</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.74223</cdr:x>
-      <cdr:y>0.13548</cdr:y>
+      <cdr:x>0.73814</cdr:x>
+      <cdr:y>0.11961</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2191,8 +2191,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19281411">
-          <a:off x="5994402" y="479425"/>
-          <a:ext cx="914400" cy="335760"/>
+          <a:off x="5954822" y="382890"/>
+          <a:ext cx="914214" cy="334842"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2276,12 +2276,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35683</cdr:x>
-      <cdr:y>0.02034</cdr:y>
+      <cdr:x>0.35376</cdr:x>
+      <cdr:y>0.01399</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.3929</cdr:x>
-      <cdr:y>0.17231</cdr:y>
+      <cdr:x>0.38983</cdr:x>
+      <cdr:y>0.16596</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2296,8 +2296,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="18188010">
-          <a:off x="3031741" y="411111"/>
-          <a:ext cx="913381" cy="335665"/>
+          <a:off x="3003924" y="372089"/>
+          <a:ext cx="911934" cy="335665"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2381,11 +2381,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.37282</cdr:x>
+      <cdr:x>0.37691</cdr:x>
       <cdr:y>0.70917</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.78077</cdr:x>
+      <cdr:x>0.78486</cdr:x>
       <cdr:y>0.84531</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -2401,8 +2401,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="159398">
-          <a:off x="3470277" y="4267201"/>
-          <a:ext cx="3797298" cy="819149"/>
+          <a:off x="3507535" y="4255552"/>
+          <a:ext cx="3796352" cy="816942"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2490,12 +2490,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.4905</cdr:x>
-      <cdr:y>0.42793</cdr:y>
+      <cdr:x>0.48743</cdr:x>
+      <cdr:y>0.41206</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.58873</cdr:x>
-      <cdr:y>0.48373</cdr:y>
+      <cdr:x>0.58566</cdr:x>
+      <cdr:y>0.46786</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2510,8 +2510,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="150528">
-          <a:off x="4565652" y="2574925"/>
-          <a:ext cx="914400" cy="335760"/>
+          <a:off x="4535981" y="2472651"/>
+          <a:ext cx="914121" cy="334842"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2599,12 +2599,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.42398</cdr:x>
-      <cdr:y>0.13666</cdr:y>
+      <cdr:x>0.43831</cdr:x>
+      <cdr:y>0.12237</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.52222</cdr:x>
-      <cdr:y>0.19246</cdr:y>
+      <cdr:x>0.53655</cdr:x>
+      <cdr:y>0.17817</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2619,8 +2619,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="286116">
-          <a:off x="3946525" y="822323"/>
-          <a:ext cx="914400" cy="335760"/>
+          <a:off x="4078876" y="734337"/>
+          <a:ext cx="914214" cy="334842"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2975,8 +2975,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:P180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,7 +3030,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="2">
-        <v>38.829503282226192</v>
+        <v>39.068334124013326</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3041,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="2">
-        <v>15.040633744550391</v>
+        <v>15.545290907393799</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="H4" s="4">
         <f>SUM(H8:H138)</f>
-        <v>5122.5647759583362</v>
+        <v>5214.160531138642</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3120,19 +3120,19 @@
       </c>
       <c r="E8" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B8&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C8&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C8-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C8)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ref="F8:F14" si="1">D8/1000*$B$4+E8/100000*C8</f>
+        <f t="shared" ref="F8:F15" si="1">D8/1000*$B$4+E8/100000*C8</f>
         <v>0.77800000000000002</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" ref="G8:G15" si="2">$H$2/1000*$B$4+$H$3/100000*C8</f>
-        <v>1.9414751641113095</v>
+        <f t="shared" ref="G8:G13" si="2">$H$2/1000*$B$4+$H$3/100000*C8</f>
+        <v>1.9534167062006662</v>
       </c>
       <c r="H8" s="4">
         <f>(F8-G8)^2</f>
-        <v>1.3536744575038384</v>
+        <v>1.3816044332156232</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>19</v>
@@ -3156,23 +3156,23 @@
       </c>
       <c r="E9" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B9&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C9&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C9-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C9)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>5.0805000000000007</v>
+        <v>5.2087500000000002</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="2"/>
-        <v>5.7016336002489068</v>
+        <v>5.8397394330491164</v>
       </c>
       <c r="H9" s="4">
         <f>(F9-G9)^2</f>
-        <v>0.38580694935816784</v>
+        <v>0.39814766461964501</v>
       </c>
       <c r="I9" s="1">
         <f>F9*100000/C9</f>
-        <v>20.322000000000003</v>
+        <v>20.835000000000001</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>14</v>
@@ -3196,30 +3196,30 @@
       </c>
       <c r="E10" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B10&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C10&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C10-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C10)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v>9.3830000000000009</v>
+        <v>9.6395</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="2"/>
-        <v>9.4617920363865036</v>
+        <v>9.7260621598975661</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" ref="H10:H14" si="3">(F10-G10)^2</f>
-        <v>6.2081849979319613E-3</v>
+        <f t="shared" ref="H10:H15" si="3">(F10-G10)^2</f>
+        <v>7.4930075261318016E-3</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ref="I10:I14" si="4">F10*100000/C10</f>
-        <v>18.766000000000002</v>
+        <v>19.279</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K10" s="4">
         <f>SUM(H8:H23)</f>
-        <v>7.0003473099476743</v>
+        <v>7.562251956932446</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3236,23 +3236,23 @@
       </c>
       <c r="E11" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B11&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C11&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C11-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C11)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="1"/>
-        <v>13.685500000000001</v>
+        <v>14.07025</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="2"/>
-        <v>13.221950472524101</v>
+        <v>13.612384886746016</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="3"/>
-        <v>0.21487816442313001</v>
+        <v>0.20964046193508354</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>18.247333333333334</v>
+        <v>18.760333333333332</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3269,23 +3269,23 @@
       </c>
       <c r="E12" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B12&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C12&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C12-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C12)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>17.988</v>
+        <v>18.500999999999998</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="2"/>
-        <v>16.982108908661697</v>
+        <v>17.498707613594465</v>
       </c>
       <c r="H12" s="4">
         <f>(F12-G12)^2</f>
-        <v>1.011816887633761</v>
+        <v>1.0045900278464968</v>
       </c>
       <c r="I12" s="1">
         <f>F12*100000/C12</f>
-        <v>17.988</v>
+        <v>18.500999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3302,23 +3302,23 @@
       </c>
       <c r="E13" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B13&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C13&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C13-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C13)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F13" s="3">
         <f>D13/1000*$B$4+E13/100000*C13</f>
-        <v>22.286500000000004</v>
+        <v>22.927750000000003</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="2"/>
-        <v>20.742267344799298</v>
+        <v>21.385030340442917</v>
       </c>
       <c r="H13" s="4">
         <f>(F13-G13)^2</f>
-        <v>2.3846544933882203</v>
+        <v>2.379983947983932</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>17.829200000000004</v>
+        <v>18.342200000000005</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3335,23 +3335,23 @@
       </c>
       <c r="E14" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B14&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C14&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C14-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C14)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>25.641500000000004</v>
+        <v>26.411000000000001</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="2"/>
-        <v>24.502425780936893</v>
+        <f>$H$2/1000*$B$4+$H$3/100000*C14</f>
+        <v>25.271353067291365</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="3"/>
-        <v>1.2974900765342374</v>
+        <v>1.2987951312322035</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="4"/>
-        <v>17.094333333333335</v>
+        <v>17.607333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3362,9 +3362,25 @@
         <f t="shared" si="0"/>
         <v>175000</v>
       </c>
+      <c r="D15" s="4">
+        <f>IF(B15&lt;2500,Konstanten!$B$7,Konstanten!$C$7)</f>
+        <v>110.23</v>
+      </c>
+      <c r="E15" s="4">
+        <f>Konstanten!$B$3+IF(Tabelle!B15&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C15&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C15-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C15)</f>
+        <v>13.933</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>29.894250000000003</v>
+      </c>
       <c r="G15" s="5">
-        <f t="shared" si="2"/>
-        <v>28.26258421707449</v>
+        <f>$H$2/1000*$B$4+$H$3/100000*C15</f>
+        <v>29.157675794139816</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.54254156073856474</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3381,23 +3397,23 @@
       </c>
       <c r="E16" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B16&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C16&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C16-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C16)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ref="F16:F21" si="6">D16/1000*$B$4+E16/100000*C16</f>
-        <v>32.351500000000001</v>
+        <v>33.377500000000005</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" ref="G16:G21" si="7">$H$2/1000*$B$4+$H$3/100000*C16</f>
-        <v>32.022742653212084</v>
+        <v>33.043998520988261</v>
       </c>
       <c r="H16" s="4">
         <f>(F16-G16)^2</f>
-        <v>0.10808139306703073</v>
+        <v>0.11122323650302078</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ref="I16:I21" si="8">F16*100000/C16</f>
-        <v>16.175750000000001</v>
+        <v>16.688750000000002</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3414,23 +3430,23 @@
       </c>
       <c r="E17" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B17&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C17&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C17-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C17)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="6"/>
-        <v>35.706500000000005</v>
+        <v>36.860750000000003</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="7"/>
-        <v>35.782901089349686</v>
+        <f>$H$2/1000*$B$4+$H$3/100000*C17</f>
+        <v>36.930321247836709</v>
       </c>
       <c r="H17" s="4">
         <f>(F17-G17)^2</f>
-        <v>5.8371264538178268E-3</v>
+        <v>4.8401585255563205E-3</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="8"/>
-        <v>15.869555555555557</v>
+        <v>16.382555555555559</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3447,23 +3463,23 @@
       </c>
       <c r="E18" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B18&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C18&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C18-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C18)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="6"/>
-        <v>39.061500000000002</v>
+        <v>40.344000000000001</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="7"/>
-        <v>39.543059525487287</v>
+        <v>40.816643974685164</v>
       </c>
       <c r="H18" s="4">
         <f>(F18-G18)^2</f>
-        <v>0.23189957658753876</v>
+        <v>0.22339232680618853</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="8"/>
-        <v>15.624600000000003</v>
+        <v>16.137599999999999</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3481,20 +3497,20 @@
       </c>
       <c r="E19" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B19&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C19&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C19-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C19)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="6"/>
-        <v>45.771500000000003</v>
+        <v>47.310499999999998</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="7"/>
-        <v>47.063376397762475</v>
+        <v>48.58928942838206</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="1">
         <f t="shared" si="8"/>
-        <v>15.257166666666667</v>
+        <v>15.770166666666666</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3512,20 +3528,20 @@
       </c>
       <c r="E20" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B20&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C20&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C20-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C20)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="6"/>
-        <v>52.481500000000004</v>
+        <v>54.277000000000001</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="7"/>
-        <v>54.583693270037671</v>
+        <v>56.361934882078963</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="1">
         <f t="shared" si="8"/>
-        <v>14.994714285714286</v>
+        <v>15.507714285714286</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3543,20 +3559,20 @@
       </c>
       <c r="E21" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B21&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C21&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C21-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C21)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="6"/>
-        <v>59.191500000000005</v>
+        <v>61.243500000000004</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="7"/>
-        <v>62.104010142312866</v>
+        <v>64.134580335775865</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="1">
         <f t="shared" si="8"/>
-        <v>14.797875000000003</v>
+        <v>15.310874999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3673,7 +3689,7 @@
       </c>
       <c r="E31" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B31&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C31&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C31-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C31)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F31" s="3">
         <f>D31/1000*$B$27+E31/100000*C31</f>
@@ -3681,11 +3697,11 @@
       </c>
       <c r="G31" s="4">
         <f t="shared" ref="G31:G38" si="9">$H$2/1000*$B$27+$H$3/100000*C31</f>
-        <v>3.882950328222619</v>
+        <v>3.9068334124013324</v>
       </c>
       <c r="H31" s="4">
         <f>(F31-G31)^2</f>
-        <v>5.4146978300153537</v>
+        <v>5.5264177328624928</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>19</v>
@@ -3709,19 +3725,19 @@
       </c>
       <c r="E32" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B32&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C32&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C32-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C32)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F32" s="3">
         <f>D32/1000*$B$27+E32/100000*C32</f>
-        <v>10.161000000000001</v>
+        <v>10.4175</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="9"/>
-        <v>11.403267200497814</v>
+        <v>11.679478866098233</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" ref="H32:H37" si="11">(F32-G32)^2</f>
-        <v>1.5432277974326714</v>
+        <f t="shared" ref="H32:H38" si="11">(F32-G32)^2</f>
+        <v>1.5925906584785801</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>14</v>
@@ -3745,26 +3761,26 @@
       </c>
       <c r="E33" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B33&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C33&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C33-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C33)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" ref="F33:F38" si="12">D33/1000*$B$27+E33/100000*C33</f>
-        <v>18.766000000000002</v>
+        <v>19.279</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="9"/>
-        <v>18.923584072773007</v>
+        <v>19.452124319795132</v>
       </c>
       <c r="H33" s="4">
         <f t="shared" si="11"/>
-        <v>2.4832739991727845E-2</v>
+        <v>2.9972030104527207E-2</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K33" s="4">
         <f>SUM(H31:H46)</f>
-        <v>28.001389239790697</v>
+        <v>30.249007827729784</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3781,19 +3797,19 @@
       </c>
       <c r="E34" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B34&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C34&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C34-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C34)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="12"/>
-        <v>27.371000000000002</v>
+        <v>28.140499999999999</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="9"/>
-        <v>26.443900945048203</v>
+        <v>27.224769773492032</v>
       </c>
       <c r="H34" s="4">
         <f>(F34-G34)^2</f>
-        <v>0.85951265769252005</v>
+        <v>0.83856184774033415</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3810,19 +3826,19 @@
       </c>
       <c r="E35" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B35&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C35&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C35-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C35)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="12"/>
-        <v>35.975999999999999</v>
+        <v>37.001999999999995</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="9"/>
-        <v>33.964217817323394</v>
+        <v>34.997415227188931</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="11"/>
-        <v>4.0472675505350439</v>
+        <v>4.018360111385987</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3839,19 +3855,19 @@
       </c>
       <c r="E36" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B36&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C36&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C36-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C36)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="12"/>
-        <v>44.573000000000008</v>
+        <v>45.855500000000006</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="9"/>
-        <v>41.484534689598597</v>
+        <v>42.770060680885834</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="11"/>
-        <v>9.5386179735528813</v>
+        <v>9.5199357919357279</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3868,19 +3884,19 @@
       </c>
       <c r="E37" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B37&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C37&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C37-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C37)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="12"/>
-        <v>51.283000000000008</v>
+        <v>52.822000000000003</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="9"/>
-        <v>49.004851561873785</v>
+        <f>$H$2/1000*$B$27+$H$3/100000*C37</f>
+        <v>50.54270613458273</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="11"/>
-        <v>5.1899603061369497</v>
+        <v>5.1951805249288139</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3897,15 +3913,19 @@
       </c>
       <c r="E38" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B38&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C38&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C38-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C38)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="12"/>
-        <v>57.993000000000009</v>
+        <v>59.788500000000006</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="9"/>
-        <v>56.525168434148981</v>
+        <v>58.315351588279633</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="11"/>
+        <v>2.170166242954259</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3922,19 +3942,19 @@
       </c>
       <c r="E39" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B39&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C39&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C39-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C39)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" ref="F39:F44" si="14">D39/1000*$B$27+E39/100000*C39</f>
-        <v>64.703000000000003</v>
+        <v>66.75500000000001</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" ref="G39:G44" si="15">$H$2/1000*$B$27+$H$3/100000*C39</f>
-        <v>64.045485306424169</v>
+        <v>66.087997041976521</v>
       </c>
       <c r="H39" s="4">
         <f>(F39-G39)^2</f>
-        <v>0.4323255722681229</v>
+        <v>0.44489294601208312</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3952,19 +3972,19 @@
       </c>
       <c r="E40" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B40&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C40&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C40-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C40)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="14"/>
-        <v>71.413000000000011</v>
+        <v>73.721500000000006</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="15"/>
-        <v>71.565802178699371</v>
+        <v>73.860642495673417</v>
       </c>
       <c r="H40" s="4">
         <f>(F40-G40)^2</f>
-        <v>2.3348505815271307E-2</v>
+        <v>1.9360634102225282E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3982,19 +4002,19 @@
       </c>
       <c r="E41" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B41&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C41&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C41-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C41)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="14"/>
-        <v>78.123000000000005</v>
+        <v>80.688000000000002</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="15"/>
-        <v>79.086119050974574</v>
+        <v>81.633287949370327</v>
       </c>
       <c r="H41" s="4">
         <f>(F41-G41)^2</f>
-        <v>0.92759830635015506</v>
+        <v>0.89356930722475414</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -4012,15 +4032,15 @@
       </c>
       <c r="E42" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B42&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C42&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C42-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C42)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="14"/>
-        <v>91.543000000000006</v>
+        <v>94.620999999999995</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="15"/>
-        <v>94.126752795524951</v>
+        <v>97.178578856764119</v>
       </c>
       <c r="H42" s="4"/>
     </row>
@@ -4039,15 +4059,15 @@
       </c>
       <c r="E43" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B43&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C43&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C43-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C43)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="14"/>
-        <v>104.96300000000001</v>
+        <v>108.554</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="15"/>
-        <v>109.16738654007534</v>
+        <v>112.72386976415793</v>
       </c>
       <c r="H43" s="4"/>
     </row>
@@ -4066,15 +4086,15 @@
       </c>
       <c r="E44" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B44&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C44&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C44-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C44)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="14"/>
-        <v>118.38300000000001</v>
+        <v>122.48700000000001</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="15"/>
-        <v>124.20802028462573</v>
+        <v>128.26916067155173</v>
       </c>
       <c r="H44" s="4"/>
     </row>
@@ -4189,19 +4209,19 @@
       </c>
       <c r="E54" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B54&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C54&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C54-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C54)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F54" s="3">
         <f>D54/1000*$B$50+E54/100000*C54</f>
         <v>3.89</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" ref="G54:G61" si="18">$H$2/1000*$B$50+$H$3/100000*C54</f>
-        <v>9.7073758205565479</v>
+        <f t="shared" ref="G54:G60" si="18">$H$2/1000*$B$50+$H$3/100000*C54</f>
+        <v>9.7670835310033315</v>
       </c>
       <c r="H54" s="4">
         <f>(F54-G54)^2</f>
-        <v>33.841861437595959</v>
+        <v>34.540110830390581</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>19</v>
@@ -4225,19 +4245,19 @@
       </c>
       <c r="E55" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B55&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C55&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C55-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C55)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" ref="F55:F61" si="19">D55/1000*$B$50+E55/100000*C55</f>
-        <v>25.402500000000003</v>
+        <v>26.043749999999999</v>
       </c>
       <c r="G55" s="4">
         <f t="shared" si="18"/>
-        <v>28.508168001244535</v>
+        <v>29.198697165245584</v>
       </c>
       <c r="H55" s="4">
         <f t="shared" ref="H55:H60" si="20">(F55-G55)^2</f>
-        <v>9.6451737339542021</v>
+        <v>9.9536916154911488</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>14</v>
@@ -4261,26 +4281,26 @@
       </c>
       <c r="E56" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B56&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C56&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C56-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C56)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="19"/>
-        <v>46.915000000000006</v>
+        <v>48.197499999999998</v>
       </c>
       <c r="G56" s="4">
         <f t="shared" si="18"/>
-        <v>47.308960181932527</v>
+        <v>48.63031079948783</v>
       </c>
       <c r="H56" s="4">
         <f t="shared" si="20"/>
-        <v>0.15520462494830461</v>
+        <v>0.18732518815329657</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K56" s="4">
         <f>SUM(H54:H69)</f>
-        <v>179.75196028893976</v>
+        <v>243.0886100647206</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4297,19 +4317,19 @@
       </c>
       <c r="E57" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B57&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C57&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C57-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C57)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="19"/>
-        <v>68.427500000000009</v>
+        <v>70.351249999999993</v>
       </c>
       <c r="G57" s="4">
         <f t="shared" si="18"/>
-        <v>66.109752362620512</v>
+        <v>68.061924433730084</v>
       </c>
       <c r="H57" s="4">
         <f t="shared" si="20"/>
-        <v>5.3719541105782422</v>
+        <v>5.2410115483770392</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4326,19 +4346,19 @@
       </c>
       <c r="E58" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B58&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C58&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C58-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C58)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="19"/>
-        <v>89.940000000000012</v>
+        <v>92.504999999999995</v>
       </c>
       <c r="G58" s="4">
         <f t="shared" si="18"/>
-        <v>84.910544543308504</v>
+        <v>87.493538067972338</v>
       </c>
       <c r="H58" s="4">
         <f t="shared" si="20"/>
-        <v>25.295422190843986</v>
+        <v>25.114750696162382</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -4355,19 +4375,19 @@
       </c>
       <c r="E59" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B59&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C59&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C59-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C59)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" si="19"/>
-        <v>111.4325</v>
+        <v>114.63875000000002</v>
       </c>
       <c r="G59" s="4">
         <f t="shared" si="18"/>
-        <v>103.71133672399648</v>
+        <v>106.92515170221458</v>
       </c>
       <c r="H59" s="4">
         <f t="shared" si="20"/>
-        <v>59.616362334705457</v>
+        <v>59.499598699598408</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4384,19 +4404,19 @@
       </c>
       <c r="E60" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B60&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C60&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C60-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C60)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="19"/>
-        <v>128.20750000000001</v>
+        <v>132.05500000000001</v>
       </c>
       <c r="G60" s="4">
         <f t="shared" si="18"/>
-        <v>122.51212890468447</v>
+        <v>126.35676533645683</v>
       </c>
       <c r="H60" s="4">
         <f t="shared" si="20"/>
-        <v>32.437251913355695</v>
+        <v>32.469878280805005</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4413,19 +4433,19 @@
       </c>
       <c r="E61" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B61&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C61&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C61-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C61)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="19"/>
-        <v>144.98250000000002</v>
+        <v>149.47125</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" si="18"/>
-        <v>141.31292108537244</v>
+        <f>$H$2/1000*$B$50+$H$3/100000*C61</f>
+        <v>145.78837897069906</v>
       </c>
       <c r="H61" s="4">
         <f>(F62-G62)^2</f>
-        <v>2.702034826675745</v>
+        <v>2.7805809125754251</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4442,19 +4462,19 @@
       </c>
       <c r="E62" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B62&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C62&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C62-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C62)</f>
-        <v>13.42</v>
+        <v>13.933</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" ref="F62:F67" si="22">D62/1000*$B$50+E62/100000*C62</f>
-        <v>161.75750000000002</v>
+        <v>166.88750000000002</v>
       </c>
       <c r="G62" s="4">
         <f t="shared" ref="G62:G67" si="23">$H$2/1000*$B$50+$H$3/100000*C62</f>
-        <v>160.11371326606044</v>
+        <v>165.21999260494132</v>
       </c>
       <c r="H62" s="4">
         <f>(F63-G63)^2</f>
-        <v>0.58829735534173344</v>
+        <v>0.53707826731029473</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4472,19 +4492,19 @@
       </c>
       <c r="E63" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B63&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C63&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C63-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C63)</f>
-        <v>13.385777777777777</v>
+        <v>13.898777777777777</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="22"/>
-        <v>178.14750000000001</v>
+        <v>183.91874999999999</v>
       </c>
       <c r="G63" s="4">
         <f t="shared" si="23"/>
-        <v>178.91450544674842</v>
+        <v>184.65160623918356</v>
       </c>
       <c r="H63" s="4">
         <f>(F64-G64)^2</f>
-        <v>10.098397760940445</v>
+        <v>9.8170667752304848</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4502,17 +4522,20 @@
       </c>
       <c r="E64" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B64&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C64&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C64-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C64)</f>
-        <v>13.3584</v>
+        <v>13.8714</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" si="22"/>
-        <v>194.53749999999999</v>
+        <v>200.95</v>
       </c>
       <c r="G64" s="4">
         <f t="shared" si="23"/>
-        <v>197.7152976274364</v>
-      </c>
-      <c r="H64" s="4"/>
+        <v>204.0832198734258</v>
+      </c>
+      <c r="H64" s="4">
+        <f>(F65-G65)^2</f>
+        <v>62.947517250626539</v>
+      </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
@@ -4529,15 +4552,15 @@
       </c>
       <c r="E65" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B65&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C65&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C65-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C65)</f>
-        <v>13.317333333333334</v>
+        <v>13.830333333333334</v>
       </c>
       <c r="F65" s="3">
         <f t="shared" si="22"/>
-        <v>227.31750000000002</v>
+        <v>235.01250000000002</v>
       </c>
       <c r="G65" s="4">
         <f t="shared" si="23"/>
-        <v>235.31688198881238</v>
+        <v>242.94644714191031</v>
       </c>
       <c r="H65" s="4"/>
     </row>
@@ -4556,15 +4579,15 @@
       </c>
       <c r="E66" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B66&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C66&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C66-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C66)</f>
-        <v>13.288</v>
+        <v>13.801</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="22"/>
-        <v>260.09750000000003</v>
+        <v>269.07499999999999</v>
       </c>
       <c r="G66" s="4">
         <f t="shared" si="23"/>
-        <v>272.91846635018834</v>
+        <v>281.80967441039479</v>
       </c>
       <c r="H66" s="4"/>
       <c r="O66" s="2"/>
@@ -4585,15 +4608,15 @@
       </c>
       <c r="E67" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B67&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C67&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C67-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C67)</f>
-        <v>13.266</v>
+        <v>13.779</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="22"/>
-        <v>292.8775</v>
+        <v>303.13749999999999</v>
       </c>
       <c r="G67" s="4">
         <f t="shared" si="23"/>
-        <v>310.52005071156435</v>
+        <v>320.67290167887933</v>
       </c>
       <c r="H67" s="4"/>
       <c r="O67" s="2"/>
@@ -4685,7 +4708,7 @@
       </c>
       <c r="E77" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B77&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C77&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C77-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C77)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F77" s="3">
         <f>D77/1000*$B$73+E77/100000*C77</f>
@@ -4693,11 +4716,11 @@
       </c>
       <c r="G77" s="4">
         <f t="shared" ref="G77:G84" si="25">$H$2/1000*$B$73+$H$3/100000*C77</f>
-        <v>19.414751641113096</v>
+        <v>19.534167062006663</v>
       </c>
       <c r="H77" s="4">
         <f>(F77-G77)^2</f>
-        <v>135.36744575038384</v>
+        <v>138.16044332156233</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>19</v>
@@ -4721,19 +4744,19 @@
       </c>
       <c r="E78" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B78&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C78&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C78-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C78)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F78" s="3">
         <f t="shared" ref="F78:F84" si="27">D78/1000*$B$73+E78/100000*C78</f>
-        <v>50.805000000000007</v>
+        <v>52.087499999999999</v>
       </c>
       <c r="G78" s="4">
         <f t="shared" si="25"/>
-        <v>57.016336002489069</v>
+        <v>58.397394330491167</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" ref="H78:H83" si="28">(F78-G78)^2</f>
-        <v>38.580694935816808</v>
+        <f t="shared" ref="H78:H84" si="28">(F78-G78)^2</f>
+        <v>39.814766461964595</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>14</v>
@@ -4757,26 +4780,26 @@
       </c>
       <c r="E79" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B79&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C79&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C79-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C79)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="27"/>
-        <v>93.830000000000013</v>
+        <v>96.394999999999996</v>
       </c>
       <c r="G79" s="4">
         <f t="shared" si="25"/>
-        <v>94.617920363865053</v>
+        <v>97.260621598975661</v>
       </c>
       <c r="H79" s="4">
         <f t="shared" si="28"/>
-        <v>0.62081849979321846</v>
+        <v>0.74930075261318629</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K79" s="4">
         <f>SUM(H77:H92)</f>
-        <v>719.91539363034531</v>
+        <v>745.77595733510918</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -4793,19 +4816,19 @@
       </c>
       <c r="E80" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B80&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C80&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C80-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C80)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F80" s="3">
         <f t="shared" si="27"/>
-        <v>136.85500000000002</v>
+        <v>140.70249999999999</v>
       </c>
       <c r="G80" s="4">
         <f t="shared" si="25"/>
-        <v>132.21950472524102</v>
+        <v>136.12384886746017</v>
       </c>
       <c r="H80" s="4">
         <f t="shared" si="28"/>
-        <v>21.487816442312969</v>
+        <v>20.964046193508157</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4822,19 +4845,19 @@
       </c>
       <c r="E81" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B81&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C81&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C81-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C81)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F81" s="3">
         <f t="shared" si="27"/>
-        <v>179.88000000000002</v>
+        <v>185.01</v>
       </c>
       <c r="G81" s="4">
         <f t="shared" si="25"/>
-        <v>169.82108908661701</v>
+        <v>174.98707613594468</v>
       </c>
       <c r="H81" s="4">
         <f t="shared" si="28"/>
-        <v>101.18168876337594</v>
+        <v>100.45900278464953</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4851,19 +4874,19 @@
       </c>
       <c r="E82" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B82&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C82&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C82-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C82)</f>
-        <v>13.3584</v>
+        <v>13.8714</v>
       </c>
       <c r="F82" s="3">
         <f t="shared" si="27"/>
-        <v>222.095</v>
+        <v>228.50749999999999</v>
       </c>
       <c r="G82" s="4">
         <f t="shared" si="25"/>
-        <v>207.42267344799296</v>
+        <v>213.85030340442916</v>
       </c>
       <c r="H82" s="4">
         <f t="shared" si="28"/>
-        <v>215.27716644873067</v>
+        <v>214.83341204121336</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4880,19 +4903,19 @@
       </c>
       <c r="E83" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B83&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C83&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C83-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C83)</f>
-        <v>13.317333333333334</v>
+        <v>13.830333333333334</v>
       </c>
       <c r="F83" s="3">
         <f t="shared" si="27"/>
-        <v>254.87500000000003</v>
+        <v>262.57</v>
       </c>
       <c r="G83" s="4">
         <f t="shared" si="25"/>
-        <v>245.02425780936895</v>
+        <v>252.71353067291366</v>
       </c>
       <c r="H83" s="4">
         <f t="shared" si="28"/>
-        <v>97.037121706279223</v>
+        <v>97.149987595793661</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4909,15 +4932,19 @@
       </c>
       <c r="E84" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B84&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C84&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C84-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C84)</f>
-        <v>13.288</v>
+        <v>13.801</v>
       </c>
       <c r="F84" s="3">
         <f t="shared" si="27"/>
-        <v>287.65500000000003</v>
+        <v>296.63249999999999</v>
       </c>
       <c r="G84" s="5">
         <f t="shared" si="25"/>
-        <v>282.62584217074487</v>
+        <v>291.57675794139811</v>
+      </c>
+      <c r="H84" s="4">
+        <f t="shared" si="28"/>
+        <v>25.560527763115967</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4934,19 +4961,19 @@
       </c>
       <c r="E85" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B85&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C85&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C85-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C85)</f>
-        <v>13.266</v>
+        <v>13.779</v>
       </c>
       <c r="F85" s="3">
         <f t="shared" ref="F85:F90" si="30">D85/1000*$B$73+E85/100000*C85</f>
-        <v>320.435</v>
+        <v>330.69499999999999</v>
       </c>
       <c r="G85" s="4">
         <f t="shared" ref="G85:G90" si="31">$H$2/1000*$B$73+$H$3/100000*C85</f>
-        <v>320.22742653212089</v>
+        <v>330.43998520988265</v>
       </c>
       <c r="H85" s="4">
         <f>(F85-G85)^2</f>
-        <v>4.3086744567361994E-2</v>
+        <v>6.5032543178592597E-2</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4964,19 +4991,19 @@
       </c>
       <c r="E86" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B86&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C86&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C86-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C86)</f>
-        <v>13.248888888888889</v>
+        <v>13.761888888888889</v>
       </c>
       <c r="F86" s="3">
         <f t="shared" si="30"/>
-        <v>353.21500000000003</v>
+        <v>364.75750000000005</v>
       </c>
       <c r="G86" s="4">
         <f t="shared" si="31"/>
-        <v>357.82901089349684</v>
+        <v>369.30321247836713</v>
       </c>
       <c r="H86" s="4">
         <f>(F86-G86)^2</f>
-        <v>21.28909652530724</v>
+        <v>20.663501935982175</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4994,19 +5021,19 @@
       </c>
       <c r="E87" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B87&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C87&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C87-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C87)</f>
-        <v>13.235200000000001</v>
+        <v>13.748200000000001</v>
       </c>
       <c r="F87" s="3">
         <f t="shared" si="30"/>
-        <v>385.995</v>
+        <v>398.82</v>
       </c>
       <c r="G87" s="4">
         <f t="shared" si="31"/>
-        <v>395.4305952548728</v>
+        <v>408.16643974685161</v>
       </c>
       <c r="H87" s="4">
         <f>(F87-G87)^2</f>
-        <v>89.030457813777986</v>
+        <v>87.35593594152769</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5024,15 +5051,15 @@
       </c>
       <c r="E88" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B88&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C88&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C88-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C88)</f>
-        <v>13.214666666666666</v>
+        <v>13.727666666666666</v>
       </c>
       <c r="F88" s="3">
         <f t="shared" si="30"/>
-        <v>451.55500000000001</v>
+        <v>466.94500000000005</v>
       </c>
       <c r="G88" s="4">
         <f t="shared" si="31"/>
-        <v>470.63376397762477</v>
+        <v>485.89289428382062</v>
       </c>
       <c r="H88" s="4"/>
     </row>
@@ -5051,15 +5078,15 @@
       </c>
       <c r="E89" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B89&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C89&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C89-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C89)</f>
-        <v>13.2</v>
+        <v>13.712999999999999</v>
       </c>
       <c r="F89" s="3">
         <f t="shared" si="30"/>
-        <v>517.1149999999999</v>
+        <v>535.06999999999994</v>
       </c>
       <c r="G89" s="4">
         <f t="shared" si="31"/>
-        <v>545.83693270037668</v>
+        <v>563.61934882078958</v>
       </c>
       <c r="H89" s="4"/>
     </row>
@@ -5078,15 +5105,15 @@
       </c>
       <c r="E90" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B90&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C90&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C90-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C90)</f>
-        <v>13.189</v>
+        <v>13.702</v>
       </c>
       <c r="F90" s="3">
         <f t="shared" si="30"/>
-        <v>582.67500000000007</v>
+        <v>603.19500000000005</v>
       </c>
       <c r="G90" s="4">
         <f t="shared" si="31"/>
-        <v>621.0401014231287</v>
+        <v>641.34580335775865</v>
       </c>
       <c r="H90" s="4"/>
     </row>
@@ -5201,7 +5228,7 @@
       </c>
       <c r="E100" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B100&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C100&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C100-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C100)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F100" s="3">
         <f t="shared" ref="F100:F109" si="34">D100/1000*$B$96+E100/100000*C100</f>
@@ -5209,11 +5236,11 @@
       </c>
       <c r="G100" s="4">
         <f t="shared" ref="G100:G112" si="35">$H$2/1000*$B$96+$H$3/100000*C100</f>
-        <v>29.122127461669642</v>
+        <v>29.301250593009993</v>
       </c>
       <c r="H100" s="4">
         <f t="shared" ref="H100:H109" si="36">(F100-G100)^2</f>
-        <v>304.5767529383636</v>
+        <v>310.86099747351528</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>19</v>
@@ -5237,19 +5264,19 @@
       </c>
       <c r="E101" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B101&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C101&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C101-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C101)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F101" s="3">
         <f t="shared" si="34"/>
-        <v>76.20750000000001</v>
+        <v>78.131249999999994</v>
       </c>
       <c r="G101" s="4">
         <f t="shared" si="35"/>
-        <v>85.524504003733597</v>
+        <v>87.596091495736744</v>
       </c>
       <c r="H101" s="4">
         <f>(F101-G101)^2</f>
-        <v>86.806563605587684</v>
+        <v>89.583224539420272</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>14</v>
@@ -5273,26 +5300,26 @@
       </c>
       <c r="E102" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B102&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C102&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C102-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C102)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F102" s="3">
         <f t="shared" si="34"/>
-        <v>140.745</v>
+        <v>144.59249999999997</v>
       </c>
       <c r="G102" s="4">
         <f t="shared" si="35"/>
-        <v>141.92688054579756</v>
+        <v>145.89093239846349</v>
       </c>
       <c r="H102" s="4">
         <f t="shared" si="36"/>
-        <v>1.3968416245347248</v>
+        <v>1.6859266933797246</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K102" s="4">
         <f>SUM(H100:H115)</f>
-        <v>1533.0149085989801</v>
+        <v>1533.0187296144677</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -5309,19 +5336,19 @@
       </c>
       <c r="E103" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B103&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C103&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C103-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C103)</f>
-        <v>17.175777777777778</v>
+        <v>17.688777777777776</v>
       </c>
       <c r="F103" s="3">
         <f t="shared" si="34"/>
-        <v>204.89750000000001</v>
+        <v>210.66874999999996</v>
       </c>
       <c r="G103" s="4">
         <f t="shared" si="35"/>
-        <v>198.32925708786152</v>
+        <v>204.18577330119024</v>
       </c>
       <c r="H103" s="4">
         <f>(F103-G103)^2</f>
-        <v>43.141814952857473</v>
+        <v>42.028986877309798</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -5338,19 +5365,19 @@
       </c>
       <c r="E104" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B104&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C104&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C104-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C104)</f>
-        <v>17.107333333333333</v>
+        <v>17.620333333333331</v>
       </c>
       <c r="F104" s="3">
         <f t="shared" si="34"/>
-        <v>268.28000000000003</v>
+        <v>275.97499999999997</v>
       </c>
       <c r="G104" s="4">
         <f t="shared" si="35"/>
-        <v>254.73163362992548</v>
+        <v>262.48061420391696</v>
       </c>
       <c r="H104" s="4">
         <f t="shared" si="36"/>
-        <v>183.55823129776695</v>
+        <v>182.09844801352685</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -5367,19 +5394,19 @@
       </c>
       <c r="E105" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B105&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C105&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C105-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C105)</f>
-        <v>13.276266666666666</v>
+        <v>13.789266666666666</v>
       </c>
       <c r="F105" s="3">
         <f t="shared" si="34"/>
-        <v>331.60250000000002</v>
+        <v>341.22125</v>
       </c>
       <c r="G105" s="4">
         <f t="shared" si="35"/>
-        <v>311.13401017198947</v>
+        <v>320.77545510664373</v>
       </c>
       <c r="H105" s="4">
         <f t="shared" si="36"/>
-        <v>418.95907583937122</v>
+        <v>418.03052882119312</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -5396,19 +5423,19 @@
       </c>
       <c r="E106" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B106&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C106&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C106-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C106)</f>
-        <v>13.248888888888889</v>
+        <v>13.761888888888889</v>
       </c>
       <c r="F106" s="3">
         <f t="shared" si="34"/>
-        <v>380.77250000000004</v>
+        <v>392.31500000000005</v>
       </c>
       <c r="G106" s="4">
         <f t="shared" si="35"/>
-        <v>367.53638671405344</v>
+        <v>379.07029600937045</v>
       </c>
       <c r="H106" s="4">
         <f t="shared" si="36"/>
-        <v>175.19469491841213</v>
+        <v>175.42218379939973</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5425,19 +5452,19 @@
       </c>
       <c r="E107" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B107&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C107&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C107-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C107)</f>
-        <v>13.214666666666666</v>
+        <v>13.727666666666666</v>
       </c>
       <c r="F107" s="3">
         <f t="shared" si="34"/>
-        <v>479.11250000000001</v>
+        <v>494.50250000000005</v>
       </c>
       <c r="G107" s="4">
         <f t="shared" si="35"/>
-        <v>480.34113979818136</v>
+        <v>495.65997781482395</v>
       </c>
       <c r="H107" s="4">
         <f t="shared" si="36"/>
-        <v>1.5095557536751034</v>
+        <v>1.3397548918094919</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5454,19 +5481,19 @@
       </c>
       <c r="E108" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B108&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C108&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C108-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C108)</f>
-        <v>13.203259259259259</v>
+        <v>13.716259259259258</v>
       </c>
       <c r="F108" s="3">
         <f t="shared" si="34"/>
-        <v>528.28250000000003</v>
+        <v>545.59624999999994</v>
       </c>
       <c r="G108" s="4">
         <f t="shared" si="35"/>
-        <v>536.74351634024526</v>
+        <v>553.95481871755067</v>
       </c>
       <c r="H108" s="4">
         <f t="shared" si="36"/>
-        <v>71.588797509896906</v>
+        <v>69.865671006017564</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -5483,19 +5510,19 @@
       </c>
       <c r="E109" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B109&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C109&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C109-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C109)</f>
-        <v>13.194133333333333</v>
+        <v>13.707133333333333</v>
       </c>
       <c r="F109" s="3">
         <f t="shared" si="34"/>
-        <v>577.45249999999999</v>
+        <v>596.68999999999994</v>
       </c>
       <c r="G109" s="4">
         <f t="shared" si="35"/>
-        <v>593.14589288230923</v>
+        <v>612.2496596202775</v>
       </c>
       <c r="H109" s="4">
         <f t="shared" si="36"/>
-        <v>246.28258015851432</v>
+        <v>242.10300749889595</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5511,7 +5538,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="4">
         <f t="shared" si="35"/>
-        <v>705.95064596643715</v>
+        <v>728.83934142573094</v>
       </c>
       <c r="H110" s="4"/>
     </row>
@@ -5529,7 +5556,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="4">
         <f t="shared" si="35"/>
-        <v>818.75539905056507</v>
+        <v>845.42902323118449</v>
       </c>
       <c r="H111" s="4"/>
     </row>
@@ -5547,7 +5574,7 @@
       <c r="F112" s="3"/>
       <c r="G112" s="4">
         <f t="shared" si="35"/>
-        <v>931.560152134693</v>
+        <v>962.01870503663793</v>
       </c>
       <c r="H112" s="4"/>
     </row>
@@ -5672,7 +5699,7 @@
       </c>
       <c r="E123" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B123&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C123&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C123-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C123)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F123" s="3">
         <f>D123/1000*$B$119+E123/100000*C123</f>
@@ -5680,11 +5707,11 @@
       </c>
       <c r="G123" s="4">
         <f t="shared" ref="G123:G135" si="39">$H$2/1000*$B$119+$H$3/100000*C123</f>
-        <v>38.829503282226192</v>
+        <v>39.068334124013326</v>
       </c>
       <c r="H123" s="4">
         <f t="shared" ref="H123:H132" si="40">(F123-G123)^2</f>
-        <v>541.46978300153535</v>
+        <v>552.6417732862493</v>
       </c>
       <c r="J123" s="4" t="s">
         <v>19</v>
@@ -5708,19 +5735,19 @@
       </c>
       <c r="E124" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B124&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C124&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C124-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C124)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F124" s="3">
         <f t="shared" ref="F124:F135" si="41">D124/1000*$B$119+E124/100000*C124</f>
-        <v>101.61000000000001</v>
+        <v>104.175</v>
       </c>
       <c r="G124" s="4">
         <f t="shared" si="39"/>
-        <v>114.03267200497814</v>
+        <v>116.79478866098233</v>
       </c>
       <c r="H124" s="4">
         <f t="shared" si="40"/>
-        <v>154.32277974326723</v>
+        <v>159.25906584785838</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>14</v>
@@ -5744,26 +5771,26 @@
       </c>
       <c r="E125" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B125&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C125&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C125-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C125)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F125" s="3">
         <f t="shared" si="41"/>
-        <v>187.66000000000003</v>
+        <v>192.79</v>
       </c>
       <c r="G125" s="4">
         <f t="shared" si="39"/>
-        <v>189.23584072773011</v>
+        <v>194.52124319795132</v>
       </c>
       <c r="H125" s="4">
         <f t="shared" si="40"/>
-        <v>2.4832739991728738</v>
+        <v>2.9972030104527452</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K125" s="4">
         <f>SUM(H123:H138)</f>
-        <v>2654.8807768903325</v>
+        <v>2654.4659743396819</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -5780,19 +5807,19 @@
       </c>
       <c r="E126" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B126&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C126&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C126-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C126)</f>
-        <v>17.107333333333333</v>
+        <v>17.620333333333331</v>
       </c>
       <c r="F126" s="3">
         <f t="shared" si="41"/>
-        <v>272.17</v>
+        <v>279.86499999999995</v>
       </c>
       <c r="G126" s="4">
         <f t="shared" si="39"/>
-        <v>264.43900945048205</v>
+        <v>272.24769773492034</v>
       </c>
       <c r="H126" s="4">
         <f>(F126-G126)^2</f>
-        <v>59.768214876736153</v>
+        <v>58.023293797587044</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -5809,19 +5836,19 @@
       </c>
       <c r="E127" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B127&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C127&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C127-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C127)</f>
-        <v>17.056000000000001</v>
+        <v>17.568999999999999</v>
       </c>
       <c r="F127" s="3">
         <f t="shared" si="41"/>
-        <v>356.68000000000006</v>
+        <v>366.94</v>
       </c>
       <c r="G127" s="4">
         <f t="shared" si="39"/>
-        <v>339.64217817323402</v>
+        <v>349.97415227188935</v>
       </c>
       <c r="H127" s="4">
         <f t="shared" si="40"/>
-        <v>290.28737260062559</v>
+        <v>287.83998913343714</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -5838,19 +5865,19 @@
       </c>
       <c r="E128" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B128&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C128&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C128-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C128)</f>
-        <v>13.235200000000001</v>
+        <v>13.748200000000001</v>
       </c>
       <c r="F128" s="3">
         <f>D128/1000*$B$119+E128/100000*C128</f>
-        <v>441.11</v>
+        <v>453.935</v>
       </c>
       <c r="G128" s="4">
         <f t="shared" si="39"/>
-        <v>414.84534689598593</v>
+        <v>427.70060680885831</v>
       </c>
       <c r="H128" s="4">
         <f t="shared" si="40"/>
-        <v>689.83200267419681</v>
+        <v>688.24338610742154</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -5867,19 +5894,19 @@
       </c>
       <c r="E129" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B129&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C129&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C129-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C129)</f>
-        <v>13.214666666666666</v>
+        <v>13.727666666666666</v>
       </c>
       <c r="F129" s="3">
         <f>D129/1000*$B$119+E129/100000*C129</f>
-        <v>506.67</v>
+        <v>522.06000000000006</v>
       </c>
       <c r="G129" s="4">
         <f t="shared" si="39"/>
-        <v>490.04851561873789</v>
+        <v>505.42706134582733</v>
       </c>
       <c r="H129" s="4">
         <f t="shared" si="40"/>
-        <v>276.27374303654062</v>
+        <v>276.65464827347347</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -5896,19 +5923,19 @@
       </c>
       <c r="E130" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B130&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C130&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C130-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C130)</f>
-        <v>13.189</v>
+        <v>13.702</v>
       </c>
       <c r="F130" s="3">
         <f t="shared" si="41"/>
-        <v>637.79000000000008</v>
+        <v>658.31000000000006</v>
       </c>
       <c r="G130" s="4">
         <f t="shared" si="39"/>
-        <v>640.45485306424177</v>
+        <v>660.8799704197653</v>
       </c>
       <c r="H130" s="4">
         <f>(F130-G130)^2</f>
-        <v>7.101441853998363</v>
+        <v>6.6047479584683284</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -5926,19 +5953,19 @@
       </c>
       <c r="E131" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B131&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C131&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C131-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C131)</f>
-        <v>13.180444444444444</v>
+        <v>13.693444444444443</v>
       </c>
       <c r="F131" s="3">
         <f t="shared" si="41"/>
-        <v>703.34999999999991</v>
+        <v>726.43499999999995</v>
       </c>
       <c r="G131" s="4">
         <f t="shared" si="39"/>
-        <v>715.65802178699369</v>
+        <v>738.60642495673426</v>
       </c>
       <c r="H131" s="4">
         <f t="shared" si="40"/>
-        <v>151.4874003091135</v>
+        <v>148.14358547741489</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -5956,19 +5983,19 @@
       </c>
       <c r="E132" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B132&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C132&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C132-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C132)</f>
-        <v>13.1736</v>
+        <v>13.6866</v>
       </c>
       <c r="F132" s="3">
         <f t="shared" si="41"/>
-        <v>768.91</v>
+        <v>794.56000000000006</v>
       </c>
       <c r="G132" s="4">
         <f t="shared" si="39"/>
-        <v>790.8611905097456</v>
+        <v>816.33287949370322</v>
       </c>
       <c r="H132" s="4">
         <f t="shared" si="40"/>
-        <v>481.85476479514659</v>
+        <v>474.05828144731947</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -5985,15 +6012,15 @@
       </c>
       <c r="E133" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B133&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C133&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C133-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C133)</f>
-        <v>13.163333333333334</v>
+        <v>13.676333333333334</v>
       </c>
       <c r="F133" s="3">
         <f t="shared" si="41"/>
-        <v>900.03000000000009</v>
+        <v>930.81</v>
       </c>
       <c r="G133" s="4">
         <f t="shared" si="39"/>
-        <v>941.26752795524953</v>
+        <v>971.78578856764125</v>
       </c>
       <c r="H133" s="4"/>
     </row>
@@ -6012,15 +6039,15 @@
       </c>
       <c r="E134" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B134&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C134&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C134-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C134)</f>
-        <v>13.156000000000001</v>
+        <v>13.669</v>
       </c>
       <c r="F134" s="3">
         <f t="shared" si="41"/>
-        <v>1031.1499999999999</v>
+        <v>1067.06</v>
       </c>
       <c r="G134" s="4">
         <f t="shared" si="39"/>
-        <v>1091.6738654007534</v>
+        <v>1127.2386976415792</v>
       </c>
       <c r="H134" s="4"/>
     </row>
@@ -6039,15 +6066,15 @@
       </c>
       <c r="E135" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B135&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C135&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C135-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C135)</f>
-        <v>13.150499999999999</v>
+        <v>13.663499999999999</v>
       </c>
       <c r="F135" s="3">
         <f t="shared" si="41"/>
-        <v>1162.27</v>
+        <v>1203.31</v>
       </c>
       <c r="G135" s="4">
         <f t="shared" si="39"/>
-        <v>1242.0802028462574</v>
+        <v>1282.6916067155173</v>
       </c>
       <c r="H135" s="4"/>
     </row>
@@ -6148,7 +6175,7 @@
       </c>
       <c r="E147" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B147&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C147&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C147-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C147)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F147" s="3">
         <f>D147/1000*$B$143+E147/100000*C147</f>
@@ -6156,7 +6183,7 @@
       </c>
       <c r="G147" s="4">
         <f t="shared" ref="G147:G159" si="43">$H$2/1000*$B$143+$H$3/100000*C147</f>
-        <v>58.244254923339284</v>
+        <v>58.602501186019985</v>
       </c>
       <c r="H147" s="4"/>
       <c r="K147" s="4"/>
@@ -6176,15 +6203,15 @@
       </c>
       <c r="E148" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B148&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C148&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C148-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C148)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F148" s="3">
         <f t="shared" ref="F148:F156" si="45">D148/1000*$B$143+E148/100000*C148</f>
-        <v>152.41500000000002</v>
+        <v>156.26249999999999</v>
       </c>
       <c r="G148" s="4">
         <f t="shared" si="43"/>
-        <v>171.04900800746719</v>
+        <v>175.19218299147349</v>
       </c>
       <c r="H148" s="4"/>
       <c r="K148" s="4"/>
@@ -6204,15 +6231,15 @@
       </c>
       <c r="E149" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B149&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C149&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C149-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C149)</f>
-        <v>17.107333333333333</v>
+        <v>17.620333333333331</v>
       </c>
       <c r="F149" s="3">
         <f t="shared" si="45"/>
-        <v>279.95</v>
+        <v>287.64499999999992</v>
       </c>
       <c r="G149" s="4">
         <f t="shared" si="43"/>
-        <v>283.85376109159512</v>
+        <v>291.78186479692698</v>
       </c>
       <c r="H149" s="4"/>
     </row>
@@ -6230,15 +6257,15 @@
       </c>
       <c r="E150" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B150&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C150&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C150-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C150)</f>
-        <v>17.038888888888891</v>
+        <v>17.55188888888889</v>
       </c>
       <c r="F150" s="3">
         <f t="shared" si="45"/>
-        <v>406.71500000000003</v>
+        <v>418.25749999999999</v>
       </c>
       <c r="G150" s="4">
         <f t="shared" si="43"/>
-        <v>396.65851417572304</v>
+        <v>408.37154660238048</v>
       </c>
       <c r="H150" s="4"/>
     </row>
@@ -6256,15 +6283,15 @@
       </c>
       <c r="E151" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B151&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C151&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C151-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C151)</f>
-        <v>17.004666666666669</v>
+        <v>17.517666666666667</v>
       </c>
       <c r="F151" s="3">
         <f t="shared" si="45"/>
-        <v>533.48000000000013</v>
+        <v>548.87</v>
       </c>
       <c r="G151" s="4">
         <f t="shared" si="43"/>
-        <v>509.46326725985097</v>
+        <v>524.96122840783391</v>
       </c>
       <c r="H151" s="4"/>
     </row>
@@ -6282,15 +6309,15 @@
       </c>
       <c r="E152" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B152&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C152&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C152-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C152)</f>
-        <v>13.194133333333333</v>
+        <v>13.707133333333333</v>
       </c>
       <c r="F152" s="3">
         <f t="shared" si="45"/>
-        <v>660.125</v>
+        <v>679.36249999999995</v>
       </c>
       <c r="G152" s="4">
         <f t="shared" si="43"/>
-        <v>622.26802034397895</v>
+        <v>641.55091021328747</v>
       </c>
       <c r="H152" s="4"/>
     </row>
@@ -6308,15 +6335,15 @@
       </c>
       <c r="E153" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B153&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C153&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C153-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C153)</f>
-        <v>13.180444444444444</v>
+        <v>13.693444444444443</v>
       </c>
       <c r="F153" s="3">
         <f t="shared" si="45"/>
-        <v>758.46499999999992</v>
+        <v>781.55</v>
       </c>
       <c r="G153" s="4">
         <f t="shared" si="43"/>
-        <v>735.07277342810687</v>
+        <v>758.1405920187409</v>
       </c>
       <c r="H153" s="4"/>
     </row>
@@ -6334,15 +6361,15 @@
       </c>
       <c r="E154" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B154&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C154&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C154-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C154)</f>
-        <v>13.163333333333334</v>
+        <v>13.676333333333334</v>
       </c>
       <c r="F154" s="3">
         <f t="shared" si="45"/>
-        <v>955.1450000000001</v>
+        <v>985.92499999999995</v>
       </c>
       <c r="G154" s="4">
         <f t="shared" si="43"/>
-        <v>960.68227959636272</v>
+        <v>991.31995562964789</v>
       </c>
       <c r="H154" s="4"/>
     </row>
@@ -6361,15 +6388,15 @@
       </c>
       <c r="E155" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B155&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C155&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C155-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C155)</f>
-        <v>13.15762962962963</v>
+        <v>13.67062962962963</v>
       </c>
       <c r="F155" s="3">
         <f t="shared" si="45"/>
-        <v>1053.4850000000001</v>
+        <v>1088.1125000000002</v>
       </c>
       <c r="G155" s="4">
         <f t="shared" si="43"/>
-        <v>1073.4870326804905</v>
+        <v>1107.9096374351013</v>
       </c>
       <c r="H155" s="4"/>
     </row>
@@ -6388,15 +6415,15 @@
       </c>
       <c r="E156" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B156&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C156&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C156-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C156)</f>
-        <v>13.153066666666666</v>
+        <v>13.666066666666666</v>
       </c>
       <c r="F156" s="3">
         <f t="shared" si="45"/>
-        <v>1151.8249999999998</v>
+        <v>1190.3</v>
       </c>
       <c r="G156" s="4">
         <f t="shared" si="43"/>
-        <v>1186.2917857646185</v>
+        <v>1224.499319240555</v>
       </c>
       <c r="H156" s="4"/>
     </row>
@@ -6413,7 +6440,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="4">
         <f t="shared" si="43"/>
-        <v>1411.9012919328743</v>
+        <v>1457.6786828514619</v>
       </c>
       <c r="H157" s="4"/>
     </row>
@@ -6431,7 +6458,7 @@
       <c r="F158" s="3"/>
       <c r="G158" s="4">
         <f t="shared" si="43"/>
-        <v>1637.5107981011301</v>
+        <v>1690.858046462369</v>
       </c>
       <c r="H158" s="4"/>
     </row>
@@ -6449,7 +6476,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="4">
         <f t="shared" si="43"/>
-        <v>1863.120304269386</v>
+        <v>1924.0374100732759</v>
       </c>
       <c r="H159" s="4"/>
     </row>
@@ -6532,7 +6559,7 @@
       </c>
       <c r="E168" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B168&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C168&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C168-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C168)</f>
-        <v>17.21</v>
+        <v>17.722999999999999</v>
       </c>
       <c r="F168" s="3">
         <f>D168/1000*$B$164+E168/100000*C168</f>
@@ -6540,7 +6567,7 @@
       </c>
       <c r="G168" s="4">
         <f t="shared" ref="G168:G180" si="47">$H$2/1000*$B$164+$H$3/100000*C168</f>
-        <v>116.48850984667857</v>
+        <v>117.20500237203997</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -6558,15 +6585,15 @@
       </c>
       <c r="E169" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B169&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C169&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C169-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C169)</f>
-        <v>17.107333333333333</v>
+        <v>17.620333333333331</v>
       </c>
       <c r="F169" s="3">
         <f t="shared" ref="F169:F180" si="49">D169/1000*$B$164+E169/100000*C169</f>
-        <v>303.29000000000002</v>
+        <v>310.98499999999996</v>
       </c>
       <c r="G169" s="4">
         <f t="shared" si="47"/>
-        <v>342.09801601493439</v>
+        <v>350.38436598294697</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -6584,15 +6611,15 @@
       </c>
       <c r="E170" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B170&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C170&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C170-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C170)</f>
-        <v>17.004666666666669</v>
+        <v>17.517666666666667</v>
       </c>
       <c r="F170" s="3">
         <f t="shared" si="49"/>
-        <v>556.82000000000005</v>
+        <v>572.20999999999992</v>
       </c>
       <c r="G170" s="4">
         <f t="shared" si="47"/>
-        <v>567.70752218319024</v>
+        <v>583.56372959385396</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -6609,15 +6636,15 @@
       </c>
       <c r="E171" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B171&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C171&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C171-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C171)</f>
-        <v>16.970444444444446</v>
+        <v>17.483444444444444</v>
       </c>
       <c r="F171" s="3">
         <f t="shared" si="49"/>
-        <v>810.35</v>
+        <v>833.43499999999995</v>
       </c>
       <c r="G171" s="4">
         <f t="shared" si="47"/>
-        <v>793.31702835144608</v>
+        <v>816.74309320476095</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -6634,15 +6661,15 @@
       </c>
       <c r="E172" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B172&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C172&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C172-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C172)</f>
-        <v>16.953333333333333</v>
+        <v>17.466333333333331</v>
       </c>
       <c r="F172" s="3">
         <f t="shared" si="49"/>
-        <v>1063.8799999999999</v>
+        <v>1094.6600000000001</v>
       </c>
       <c r="G172" s="4">
         <f t="shared" si="47"/>
-        <v>1018.9265345197019</v>
+        <v>1049.9224568156678</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -6659,15 +6686,15 @@
       </c>
       <c r="E173" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B173&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C173&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C173-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C173)</f>
-        <v>13.153066666666666</v>
+        <v>13.666066666666666</v>
       </c>
       <c r="F173" s="3">
         <f t="shared" si="49"/>
-        <v>1317.1699999999998</v>
+        <v>1355.645</v>
       </c>
       <c r="G173" s="4">
         <f t="shared" si="47"/>
-        <v>1244.5360406879579</v>
+        <v>1283.1018204265749</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -6684,15 +6711,15 @@
       </c>
       <c r="E174" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B174&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C174&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C174-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C174)</f>
-        <v>13.146222222222223</v>
+        <v>13.659222222222223</v>
       </c>
       <c r="F174" s="3">
         <f t="shared" si="49"/>
-        <v>1513.8500000000001</v>
+        <v>1560.0200000000002</v>
       </c>
       <c r="G174" s="4">
         <f t="shared" si="47"/>
-        <v>1470.1455468562137</v>
+        <v>1516.2811840374818</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -6709,15 +6736,15 @@
       </c>
       <c r="E175" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B175&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C175&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C175-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C175)</f>
-        <v>13.137666666666666</v>
+        <v>13.650666666666666</v>
       </c>
       <c r="F175" s="3">
         <f t="shared" si="49"/>
-        <v>1907.21</v>
+        <v>1968.77</v>
       </c>
       <c r="G175" s="4">
         <f t="shared" si="47"/>
-        <v>1921.3645591927254</v>
+        <v>1982.6399112592958</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -6735,15 +6762,15 @@
       </c>
       <c r="E176" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B176&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C176&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C176-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C176)</f>
-        <v>13.134814814814815</v>
+        <v>13.647814814814815</v>
       </c>
       <c r="F176" s="3">
         <f t="shared" si="49"/>
-        <v>2103.89</v>
+        <v>2173.145</v>
       </c>
       <c r="G176" s="4">
         <f t="shared" si="47"/>
-        <v>2146.9740653609811</v>
+        <v>2215.8192748702027</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -6761,15 +6788,15 @@
       </c>
       <c r="E177" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B177&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C177&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C177-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C177)</f>
-        <v>13.132533333333333</v>
+        <v>13.645533333333333</v>
       </c>
       <c r="F177" s="3">
         <f t="shared" si="49"/>
-        <v>2300.5699999999997</v>
+        <v>2377.52</v>
       </c>
       <c r="G177" s="4">
         <f t="shared" si="47"/>
-        <v>2372.5835715292369</v>
+        <v>2448.99863848111</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6786,15 +6813,15 @@
       </c>
       <c r="E178" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B178&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C178&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C178-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C178)</f>
-        <v>13.129111111111111</v>
+        <v>13.642111111111111</v>
       </c>
       <c r="F178" s="3">
         <f t="shared" si="49"/>
-        <v>2693.93</v>
+        <v>2786.27</v>
       </c>
       <c r="G178" s="4">
         <f t="shared" si="47"/>
-        <v>2823.8025838657486</v>
+        <v>2915.3573657029237</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -6812,15 +6839,15 @@
       </c>
       <c r="E179" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B179&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C179&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C179-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C179)</f>
-        <v>13.126666666666667</v>
+        <v>13.639666666666667</v>
       </c>
       <c r="F179" s="3">
         <f t="shared" si="49"/>
-        <v>3087.29</v>
+        <v>3195.02</v>
       </c>
       <c r="G179" s="4">
         <f t="shared" si="47"/>
-        <v>3275.0215962022603</v>
+        <v>3381.7160929247379</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6838,15 +6865,15 @@
       </c>
       <c r="E180" s="4">
         <f>Konstanten!$B$3+IF(Tabelle!B180&lt;2500,Konstanten!$B$8,Konstanten!$C$8)+IF(Tabelle!C180&lt;1000000,Konstanten!$B$12+Konstanten!$B$13,(1000000*(Konstanten!$B$12+Konstanten!$B$13)+(Tabelle!C180-1000000)*(Konstanten!$C$12+Konstanten!$C$13))/Tabelle!C180)</f>
-        <v>13.124833333333333</v>
+        <v>13.637833333333333</v>
       </c>
       <c r="F180" s="3">
         <f t="shared" si="49"/>
-        <v>3480.65</v>
+        <v>3603.77</v>
       </c>
       <c r="G180" s="4">
         <f t="shared" si="47"/>
-        <v>3726.240608538772</v>
+        <v>3848.0748201465517</v>
       </c>
     </row>
   </sheetData>
@@ -6861,7 +6888,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6890,7 +6917,8 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>12.493</v>
+        <f>12.493+0.513</f>
+        <v>13.006</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -7108,7 +7136,7 @@
       </c>
       <c r="D6" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B6+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>5.3870137026776597</v>
+        <v>5.4613625031407125</v>
       </c>
       <c r="G6">
         <v>100</v>
@@ -7119,7 +7147,7 @@
       </c>
       <c r="I6" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G6+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>26.935068513388295</v>
+        <v>27.306812515703562</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -7130,7 +7158,7 @@
       </c>
       <c r="N6" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L6+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>3897.9909619671698</v>
+        <v>3922.3787033087265</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -7141,7 +7169,7 @@
       </c>
       <c r="S6" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q6+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>19489.954809835846</v>
+        <v>19611.893516543634</v>
       </c>
       <c r="V6">
         <v>100</v>
@@ -7152,7 +7180,7 @@
       </c>
       <c r="X6" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V6+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>538.70137026776592</v>
+        <v>546.13625031407128</v>
       </c>
       <c r="AA6">
         <v>100</v>
@@ -7163,7 +7191,7 @@
       </c>
       <c r="AC6" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA6+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>1077.4027405355318</v>
+        <v>1092.2725006281426</v>
       </c>
       <c r="AF6">
         <v>100</v>
@@ -7174,7 +7202,7 @@
       </c>
       <c r="AH6" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF6+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>808.05205540164889</v>
+        <v>819.20437547110691</v>
       </c>
       <c r="AK6">
         <v>100</v>
@@ -7185,7 +7213,7 @@
       </c>
       <c r="AM6" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK6+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>1346.7534256694148</v>
+        <v>1365.3406257851782</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
@@ -7198,7 +7226,7 @@
       </c>
       <c r="D7" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B7+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>3.4455385385663484</v>
+        <v>3.5079457969400463</v>
       </c>
       <c r="G7">
         <v>200</v>
@@ -7209,7 +7237,7 @@
       </c>
       <c r="I7" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G7+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>17.227692692831742</v>
+        <v>17.539728984700233</v>
       </c>
       <c r="L7">
         <v>10</v>
@@ -7220,7 +7248,7 @@
       </c>
       <c r="N7" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L7+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>403.33566656681234</v>
+        <v>406.22863214752709</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -7231,7 +7259,7 @@
       </c>
       <c r="S7" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q7+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>2016.6783328340616</v>
+        <v>2031.1431607376355</v>
       </c>
       <c r="V7">
         <v>200</v>
@@ -7242,7 +7270,7 @@
       </c>
       <c r="X7" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V7+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>344.55385385663487</v>
+        <v>350.79457969400465</v>
       </c>
       <c r="AA7">
         <v>200</v>
@@ -7253,7 +7281,7 @@
       </c>
       <c r="AC7" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA7+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>689.10770771326975</v>
+        <v>701.58915938800931</v>
       </c>
       <c r="AF7">
         <v>200</v>
@@ -7264,7 +7292,7 @@
       </c>
       <c r="AH7" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF7+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>516.83078078495225</v>
+        <v>526.19186954100689</v>
       </c>
       <c r="AK7">
         <v>200</v>
@@ -7275,7 +7303,7 @@
       </c>
       <c r="AM7" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK7+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>861.38463464158713</v>
+        <v>876.98644923501161</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
@@ -7288,7 +7316,7 @@
       </c>
       <c r="D8" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B8+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>2.7983801505292454</v>
+        <v>2.8568068948731571</v>
       </c>
       <c r="G8">
         <v>300</v>
@@ -7299,7 +7327,7 @@
       </c>
       <c r="I8" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G8+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>13.991900752646227</v>
+        <v>14.284034474365786</v>
       </c>
       <c r="L8">
         <v>20</v>
@@ -7310,7 +7338,7 @@
       </c>
       <c r="N8" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L8+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>209.18815015568134</v>
+        <v>210.88696152746041</v>
       </c>
       <c r="Q8">
         <v>20</v>
@@ -7321,7 +7349,7 @@
       </c>
       <c r="S8" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q8+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>1045.9407507784067</v>
+        <v>1054.4348076373021</v>
       </c>
       <c r="V8">
         <v>300</v>
@@ -7332,7 +7360,7 @@
       </c>
       <c r="X8" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V8+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>279.83801505292456</v>
+        <v>285.6806894873157</v>
       </c>
       <c r="AA8">
         <v>300</v>
@@ -7343,7 +7371,7 @@
       </c>
       <c r="AC8" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA8+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>559.67603010584912</v>
+        <v>571.36137897463141</v>
       </c>
       <c r="AF8">
         <v>300</v>
@@ -7354,7 +7382,7 @@
       </c>
       <c r="AH8" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF8+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>419.75702257938678</v>
+        <v>428.52103423097361</v>
       </c>
       <c r="AK8">
         <v>300</v>
@@ -7365,7 +7393,7 @@
       </c>
       <c r="AM8" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK8+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>699.59503763231135</v>
+        <v>714.20172371828937</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
@@ -7378,7 +7406,7 @@
       </c>
       <c r="D9" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B9+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>2.4748009565106939</v>
+        <v>2.5312374438397134</v>
       </c>
       <c r="G9">
         <v>400</v>
@@ -7389,7 +7417,7 @@
       </c>
       <c r="I9" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G9+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>12.374004782553468</v>
+        <v>12.656187219198568</v>
       </c>
       <c r="L9">
         <v>30</v>
@@ -7400,7 +7428,7 @@
       </c>
       <c r="N9" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L9+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>144.47231135197103</v>
+        <v>145.77307132077155</v>
       </c>
       <c r="Q9">
         <v>30</v>
@@ -7411,7 +7439,7 @@
       </c>
       <c r="S9" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q9+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>722.36155675985515</v>
+        <v>728.86535660385778</v>
       </c>
       <c r="V9">
         <v>400</v>
@@ -7422,7 +7450,7 @@
       </c>
       <c r="X9" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V9+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>247.48009565106938</v>
+        <v>253.12374438397134</v>
       </c>
       <c r="AA9">
         <v>400</v>
@@ -7433,7 +7461,7 @@
       </c>
       <c r="AC9" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA9+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>494.96019130213875</v>
+        <v>506.24748876794268</v>
       </c>
       <c r="AF9">
         <v>400</v>
@@ -7444,7 +7472,7 @@
       </c>
       <c r="AH9" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF9+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>371.22014347660405</v>
+        <v>379.68561657595706</v>
       </c>
       <c r="AK9">
         <v>400</v>
@@ -7455,7 +7483,7 @@
       </c>
       <c r="AM9" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK9+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>618.7002391276734</v>
+        <v>632.80936095992843</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
@@ -7468,7 +7496,7 @@
       </c>
       <c r="D10" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B10+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>2.2806534400995631</v>
+        <v>2.3358957732196464</v>
       </c>
       <c r="G10">
         <v>500</v>
@@ -7479,7 +7507,7 @@
       </c>
       <c r="I10" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G10+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>11.403267200497815</v>
+        <v>11.679478866098233</v>
       </c>
       <c r="L10">
         <v>40</v>
@@ -7490,7 +7518,7 @@
       </c>
       <c r="N10" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L10+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>112.11439195011589</v>
+        <v>113.21612621742712</v>
       </c>
       <c r="Q10">
         <v>40</v>
@@ -7501,7 +7529,7 @@
       </c>
       <c r="S10" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q10+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>560.57195975057937</v>
+        <v>566.08063108713566</v>
       </c>
       <c r="V10">
         <v>500</v>
@@ -7512,7 +7540,7 @@
       </c>
       <c r="X10" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V10+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>228.06534400995631</v>
+        <v>233.58957732196464</v>
       </c>
       <c r="AA10">
         <v>500</v>
@@ -7523,7 +7551,7 @@
       </c>
       <c r="AC10" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA10+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>456.13068801991261</v>
+        <v>467.17915464392928</v>
       </c>
       <c r="AF10">
         <v>500</v>
@@ -7534,7 +7562,7 @@
       </c>
       <c r="AH10" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF10+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>342.09801601493444</v>
+        <v>350.38436598294697</v>
       </c>
       <c r="AK10">
         <v>500</v>
@@ -7545,7 +7573,7 @@
       </c>
       <c r="AM10" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK10+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>570.16336002489072</v>
+        <v>583.97394330491159</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
@@ -7558,7 +7586,7 @@
       </c>
       <c r="D11" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B11+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>2.0217900848847217</v>
+        <v>2.0754402123928908</v>
       </c>
       <c r="G11">
         <f>G10+500</f>
@@ -7570,7 +7598,7 @@
       </c>
       <c r="I11" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G11+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>9.4617920363865036</v>
+        <v>9.7260621598975661</v>
       </c>
       <c r="L11">
         <v>50</v>
@@ -7581,7 +7609,7 @@
       </c>
       <c r="N11" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L11+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>92.699640309002774</v>
+        <v>93.681959155420458</v>
       </c>
       <c r="Q11">
         <v>50</v>
@@ -7592,7 +7620,7 @@
       </c>
       <c r="S11" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q11+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>463.4982015450139</v>
+        <v>468.40979577710226</v>
       </c>
       <c r="V11">
         <v>750</v>
@@ -7603,7 +7631,7 @@
       </c>
       <c r="X11" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V11+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>202.17900848847216</v>
+        <v>207.54402123928909</v>
       </c>
       <c r="AA11">
         <v>750</v>
@@ -7614,7 +7642,7 @@
       </c>
       <c r="AC11" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA11+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>404.35801697694433</v>
+        <v>415.08804247857819</v>
       </c>
       <c r="AF11">
         <v>750</v>
@@ -7625,7 +7653,7 @@
       </c>
       <c r="AH11" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF11+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>303.26851273270825</v>
+        <v>311.31603185893363</v>
       </c>
       <c r="AK11">
         <v>750</v>
@@ -7636,7 +7664,7 @@
       </c>
       <c r="AM11" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK11+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>505.44752122118041</v>
+        <v>518.86005309822269</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
@@ -7650,7 +7678,7 @@
       </c>
       <c r="D12" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B12+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.8923584072773008</v>
+        <v>1.9452124319795132</v>
       </c>
       <c r="G12">
         <f t="shared" ref="G12:G16" si="11">G11+500</f>
@@ -7662,7 +7690,7 @@
       </c>
       <c r="I12" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G12+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>8.8146336483494014</v>
+        <v>9.0749232578306778</v>
       </c>
       <c r="L12">
         <v>75</v>
@@ -7673,7 +7701,7 @@
       </c>
       <c r="N12" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L12+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>66.813304787518646</v>
+        <v>67.636403072744898</v>
       </c>
       <c r="Q12">
         <v>100</v>
@@ -7684,7 +7712,7 @@
       </c>
       <c r="S12" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q12+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>269.35068513388296</v>
+        <v>273.06812515703564</v>
       </c>
       <c r="V12">
         <f>V10+500</f>
@@ -7696,7 +7724,7 @@
       </c>
       <c r="X12" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V12+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>189.23584072773008</v>
+        <v>194.52124319795132</v>
       </c>
       <c r="AA12">
         <f>AA10+500</f>
@@ -7708,7 +7736,7 @@
       </c>
       <c r="AC12" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA12+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>378.47168145546016</v>
+        <v>389.04248639590264</v>
       </c>
       <c r="AF12">
         <f>AF10+500</f>
@@ -7720,7 +7748,7 @@
       </c>
       <c r="AH12" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF12+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>283.85376109159512</v>
+        <v>291.78186479692698</v>
       </c>
       <c r="AK12">
         <f>AK10+500</f>
@@ -7732,7 +7760,7 @@
       </c>
       <c r="AM12" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK12+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>473.0896018193252</v>
+        <v>486.3031079948783</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -7746,7 +7774,7 @@
       </c>
       <c r="D13" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B13+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.7629267296698803</v>
+        <v>1.8149846515661354</v>
       </c>
       <c r="G13">
         <f t="shared" si="11"/>
@@ -7758,7 +7786,7 @@
       </c>
       <c r="I13" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G13+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>8.4910544543308504</v>
+        <v>8.7493538067972345</v>
       </c>
       <c r="L13">
         <v>100</v>
@@ -7769,7 +7797,7 @@
       </c>
       <c r="N13" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L13+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>53.87013702677659</v>
+        <v>54.613625031407125</v>
       </c>
       <c r="Q13">
         <v>200</v>
@@ -7780,7 +7808,7 @@
       </c>
       <c r="S13" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q13+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>172.27692692831744</v>
+        <v>175.39728984700233</v>
       </c>
       <c r="V13">
         <f t="shared" ref="V13:V17" si="15">V12+500</f>
@@ -7792,7 +7820,7 @@
       </c>
       <c r="X13" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V13+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>176.29267296698802</v>
+        <v>181.49846515661355</v>
       </c>
       <c r="AA13">
         <f t="shared" ref="AA13:AA17" si="16">AA12+500</f>
@@ -7804,7 +7832,7 @@
       </c>
       <c r="AC13" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA13+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>352.58534593397604</v>
+        <v>362.9969303132271</v>
       </c>
       <c r="AF13">
         <f t="shared" ref="AF13:AF17" si="17">AF12+500</f>
@@ -7816,7 +7844,7 @@
       </c>
       <c r="AH13" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF13+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>264.43900945048205</v>
+        <v>272.24769773492034</v>
       </c>
       <c r="AK13">
         <f t="shared" ref="AK13:AK17" si="18">AK12+500</f>
@@ -7828,7 +7856,7 @@
       </c>
       <c r="AM13" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK13+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>440.7316824174701</v>
+        <v>453.74616289153386</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
@@ -7842,7 +7870,7 @@
       </c>
       <c r="D14" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B14+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.6982108908661699</v>
+        <v>1.7498707613594466</v>
       </c>
       <c r="G14">
         <f t="shared" si="11"/>
@@ -7854,7 +7882,7 @@
       </c>
       <c r="I14" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G14+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>8.2969069379197204</v>
+        <v>8.5540121361771657</v>
       </c>
       <c r="L14">
         <v>200</v>
@@ -7865,7 +7893,7 @@
       </c>
       <c r="N14" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L14+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>34.455385385663483</v>
+        <v>35.079457969400465</v>
       </c>
       <c r="Q14">
         <v>300</v>
@@ -7876,7 +7904,7 @@
       </c>
       <c r="S14" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q14+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>139.91900752646228</v>
+        <v>142.84034474365785</v>
       </c>
       <c r="V14">
         <f t="shared" si="15"/>
@@ -7888,7 +7916,7 @@
       </c>
       <c r="X14" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V14+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>169.82108908661701</v>
+        <v>174.98707613594468</v>
       </c>
       <c r="AA14">
         <f t="shared" si="16"/>
@@ -7900,7 +7928,7 @@
       </c>
       <c r="AC14" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA14+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>339.64217817323402</v>
+        <v>349.97415227188935</v>
       </c>
       <c r="AF14">
         <f t="shared" si="17"/>
@@ -7912,7 +7940,7 @@
       </c>
       <c r="AH14" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF14+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>254.73163362992551</v>
+        <v>262.48061420391701</v>
       </c>
       <c r="AK14">
         <f t="shared" si="18"/>
@@ -7924,7 +7952,7 @@
       </c>
       <c r="AM14" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK14+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>424.55272271654252</v>
+        <v>437.46769033986169</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
@@ -7938,7 +7966,7 @@
       </c>
       <c r="D15" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B15+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.6593813875839438</v>
+        <v>1.7108024272354332</v>
       </c>
       <c r="G15">
         <f t="shared" si="11"/>
@@ -7950,7 +7978,7 @@
       </c>
       <c r="I15" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G15+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>8.1674752603122993</v>
+        <v>8.4237843557637877</v>
       </c>
       <c r="L15">
         <v>300</v>
@@ -7961,7 +7989,7 @@
       </c>
       <c r="N15" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L15+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>27.983801505292455</v>
+        <v>28.568068948731572</v>
       </c>
       <c r="Q15">
         <v>400</v>
@@ -7972,7 +8000,7 @@
       </c>
       <c r="S15" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q15+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>123.74004782553469</v>
+        <v>126.56187219198567</v>
       </c>
       <c r="V15">
         <f t="shared" si="15"/>
@@ -7984,7 +8012,7 @@
       </c>
       <c r="X15" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V15+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>165.93813875839439</v>
+        <v>171.08024272354334</v>
       </c>
       <c r="AA15">
         <f t="shared" si="16"/>
@@ -7996,7 +8024,7 @@
       </c>
       <c r="AC15" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA15+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>331.87627751678878</v>
+        <v>342.16048544708667</v>
       </c>
       <c r="AF15">
         <f t="shared" si="17"/>
@@ -8008,7 +8036,7 @@
       </c>
       <c r="AH15" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF15+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>248.9072081375916</v>
+        <v>256.62036408531498</v>
       </c>
       <c r="AK15">
         <f t="shared" si="18"/>
@@ -8020,7 +8048,7 @@
       </c>
       <c r="AM15" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK15+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>414.84534689598598</v>
+        <v>427.70060680885831</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
@@ -8034,7 +8062,7 @@
       </c>
       <c r="D16" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B16+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.6334950520624598</v>
+        <v>1.6847568711527576</v>
       </c>
       <c r="G16">
         <f t="shared" si="11"/>
@@ -8046,7 +8074,7 @@
       </c>
       <c r="I16" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G16+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>8.0750240620212832</v>
+        <v>8.3307645126113758</v>
       </c>
       <c r="L16">
         <v>400</v>
@@ -8057,7 +8085,7 @@
       </c>
       <c r="N16" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L16+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>24.748009565106937</v>
+        <v>25.312374438397136</v>
       </c>
       <c r="Q16">
         <v>500</v>
@@ -8068,7 +8096,7 @@
       </c>
       <c r="S16" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q16+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>114.03267200497815</v>
+        <v>116.79478866098232</v>
       </c>
       <c r="V16">
         <f t="shared" si="15"/>
@@ -8080,7 +8108,7 @@
       </c>
       <c r="X16" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V16+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>163.34950520624596</v>
+        <v>168.47568711527578</v>
       </c>
       <c r="AA16">
         <f t="shared" si="16"/>
@@ -8092,7 +8120,7 @@
       </c>
       <c r="AC16" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA16+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>326.69901041249193</v>
+        <v>336.95137423055155</v>
       </c>
       <c r="AF16">
         <f t="shared" si="17"/>
@@ -8104,7 +8132,7 @@
       </c>
       <c r="AH16" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF16+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>245.02425780936898</v>
+        <v>252.71353067291366</v>
       </c>
       <c r="AK16">
         <f t="shared" si="18"/>
@@ -8116,7 +8144,7 @@
       </c>
       <c r="AM16" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK16+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>408.37376301561494</v>
+        <v>421.18921778818941</v>
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.25">
@@ -8130,7 +8158,7 @@
       </c>
       <c r="D17" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B17+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.6150048124042569</v>
+        <v>1.6661529025222752</v>
       </c>
       <c r="G17">
         <f>G16+500</f>
@@ -8142,7 +8170,7 @@
       </c>
       <c r="I17" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G17+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>8.0056856633030247</v>
+        <v>8.260999630247067</v>
       </c>
       <c r="L17">
         <v>500</v>
@@ -8153,7 +8181,7 @@
       </c>
       <c r="N17" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L17+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>22.806534400995631</v>
+        <v>23.358957732196465</v>
       </c>
       <c r="Q17">
         <v>750</v>
@@ -8164,7 +8192,7 @@
       </c>
       <c r="S17" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q17+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>101.08950424423608</v>
+        <v>103.77201061964455</v>
       </c>
       <c r="V17">
         <f t="shared" si="15"/>
@@ -8176,7 +8204,7 @@
       </c>
       <c r="X17" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V17+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>161.50048124042567</v>
+        <v>166.61529025222754</v>
       </c>
       <c r="AA17">
         <f t="shared" si="16"/>
@@ -8188,7 +8216,7 @@
       </c>
       <c r="AC17" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA17+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>323.00096248085134</v>
+        <v>333.23058050445508</v>
       </c>
       <c r="AF17">
         <f t="shared" si="17"/>
@@ -8200,7 +8228,7 @@
       </c>
       <c r="AH17" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF17+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>242.25072186063852</v>
+        <v>249.92293537834129</v>
       </c>
       <c r="AK17">
         <f t="shared" si="18"/>
@@ -8212,7 +8240,7 @@
       </c>
       <c r="AM17" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK17+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>403.75120310106422</v>
+        <v>416.53822563056883</v>
       </c>
     </row>
     <row r="18" spans="2:39" x14ac:dyDescent="0.25">
@@ -8226,7 +8254,7 @@
       </c>
       <c r="D18" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B18+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.6011371326606048</v>
+        <v>1.6521999260494133</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:G26" si="22">G17+500</f>
@@ -8238,7 +8266,7 @@
       </c>
       <c r="I18" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G18+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>7.9517557976332638</v>
+        <v>8.2067380550748261</v>
       </c>
       <c r="L18">
         <f>L17+500</f>
@@ -8250,7 +8278,7 @@
       </c>
       <c r="N18" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L18+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>18.923584072773007</v>
+        <v>19.452124319795132</v>
       </c>
       <c r="Q18">
         <f>Q16+500</f>
@@ -8262,7 +8290,7 @@
       </c>
       <c r="S18" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q18+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>94.617920363865039</v>
+        <v>97.260621598975661</v>
       </c>
       <c r="V18">
         <f>V17+500</f>
@@ -8274,7 +8302,7 @@
       </c>
       <c r="X18" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V18+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>160.11371326606047</v>
+        <v>165.21999260494132</v>
       </c>
       <c r="AA18">
         <f>AA17+500</f>
@@ -8286,7 +8314,7 @@
       </c>
       <c r="AC18" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA18+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>320.22742653212094</v>
+        <v>330.43998520988265</v>
       </c>
       <c r="AF18">
         <f>AF17+500</f>
@@ -8298,7 +8326,7 @@
       </c>
       <c r="AH18" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF18+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>240.17056989909071</v>
+        <v>247.829988907412</v>
       </c>
       <c r="AK18">
         <f>AK17+500</f>
@@ -8310,7 +8338,7 @@
       </c>
       <c r="AM18" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK18+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>400.28428316515118</v>
+        <v>413.04998151235333</v>
       </c>
     </row>
     <row r="19" spans="2:39" x14ac:dyDescent="0.25">
@@ -8324,7 +8352,7 @@
       </c>
       <c r="D19" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B19+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.5903511595266526</v>
+        <v>1.6413476110149652</v>
       </c>
       <c r="G19">
         <f t="shared" si="22"/>
@@ -8336,7 +8364,7 @@
       </c>
       <c r="I19" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G19+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>7.9086119050974588</v>
+        <v>8.1633287949370335</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19:L23" si="23">L18+500</f>
@@ -8348,7 +8376,7 @@
       </c>
       <c r="N19" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L19+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>17.629267296698803</v>
+        <v>18.149846515661356</v>
       </c>
       <c r="Q19">
         <f t="shared" ref="Q19:Q23" si="24">Q18+500</f>
@@ -8360,7 +8388,7 @@
       </c>
       <c r="S19" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q19+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>88.146336483494011</v>
+        <v>90.749232578306774</v>
       </c>
       <c r="V19">
         <f t="shared" ref="V19:V27" si="25">V18+500</f>
@@ -8372,7 +8400,7 @@
       </c>
       <c r="X19" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V19+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>159.03511595266528</v>
+        <v>164.13476110149651</v>
       </c>
       <c r="AA19">
         <f t="shared" ref="AA19:AA27" si="26">AA18+500</f>
@@ -8384,7 +8412,7 @@
       </c>
       <c r="AC19" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA19+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>318.07023190533056</v>
+        <v>328.26952220299302</v>
       </c>
       <c r="AF19">
         <f t="shared" ref="AF19:AF27" si="27">AF18+500</f>
@@ -8396,7 +8424,7 @@
       </c>
       <c r="AH19" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF19+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>238.5526739289979</v>
+        <v>246.20214165224479</v>
       </c>
       <c r="AK19">
         <f t="shared" ref="AK19:AK27" si="28">AK18+500</f>
@@ -8408,7 +8436,7 @@
       </c>
       <c r="AM19" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK19+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>397.58778988166318</v>
+        <v>410.3369027537413</v>
       </c>
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.25">
@@ -8422,7 +8450,7 @@
       </c>
       <c r="D20" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B20+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.5817223810194918</v>
+        <v>1.6326657589874065</v>
       </c>
       <c r="G20">
         <f t="shared" si="22"/>
@@ -8434,7 +8462,7 @@
       </c>
       <c r="I20" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G20+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>7.8733123566590706</v>
+        <v>8.1278121275515662</v>
       </c>
       <c r="L20">
         <f t="shared" si="23"/>
@@ -8446,7 +8474,7 @@
       </c>
       <c r="N20" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L20+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>16.982108908661701</v>
+        <v>17.498707613594469</v>
       </c>
       <c r="Q20">
         <f t="shared" si="24"/>
@@ -8458,7 +8486,7 @@
       </c>
       <c r="S20" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q20+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>84.910544543308504</v>
+        <v>87.493538067972338</v>
       </c>
       <c r="V20">
         <f t="shared" si="25"/>
@@ -8470,7 +8498,7 @@
       </c>
       <c r="X20" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V20+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>158.17223810194918</v>
+        <v>163.26657589874065</v>
       </c>
       <c r="AA20">
         <f t="shared" si="26"/>
@@ -8482,7 +8510,7 @@
       </c>
       <c r="AC20" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA20+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>316.34447620389835</v>
+        <v>326.53315179748131</v>
       </c>
       <c r="AF20">
         <f t="shared" si="27"/>
@@ -8494,7 +8522,7 @@
       </c>
       <c r="AH20" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF20+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>237.25835715292376</v>
+        <v>244.89986384811098</v>
       </c>
       <c r="AK20">
         <f t="shared" si="28"/>
@@ -8506,7 +8534,7 @@
       </c>
       <c r="AM20" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK20+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>395.43059525487291</v>
+        <v>408.16643974685167</v>
       </c>
     </row>
     <row r="21" spans="2:39" x14ac:dyDescent="0.25">
@@ -8520,7 +8548,7 @@
       </c>
       <c r="D21" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B21+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.5746624713318143</v>
+        <v>1.6255624255103132</v>
       </c>
       <c r="G21">
         <f t="shared" si="22"/>
@@ -8532,7 +8560,7 @@
       </c>
       <c r="I21" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G21+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>7.8438960662937474</v>
+        <v>8.0982149047303444</v>
       </c>
       <c r="L21">
         <f t="shared" si="23"/>
@@ -8544,7 +8572,7 @@
       </c>
       <c r="N21" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L21+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>16.593813875839441</v>
+        <v>17.108024272354331</v>
       </c>
       <c r="Q21">
         <f t="shared" si="24"/>
@@ -8556,7 +8584,7 @@
       </c>
       <c r="S21" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q21+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>82.969069379197194</v>
+        <v>85.540121361771668</v>
       </c>
       <c r="V21">
         <f t="shared" si="25"/>
@@ -8568,7 +8596,7 @@
       </c>
       <c r="X21" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V21+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>157.46624713318141</v>
+        <v>162.55624255103132</v>
       </c>
       <c r="AA21">
         <f t="shared" si="26"/>
@@ -8580,7 +8608,7 @@
       </c>
       <c r="AC21" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA21+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>314.93249426636282</v>
+        <v>325.11248510206264</v>
       </c>
       <c r="AF21">
         <f t="shared" si="27"/>
@@ -8592,7 +8620,7 @@
       </c>
       <c r="AH21" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF21+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>236.19937069977212</v>
+        <v>243.83436382654699</v>
       </c>
       <c r="AK21">
         <f t="shared" si="28"/>
@@ -8604,7 +8632,7 @@
       </c>
       <c r="AM21" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK21+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>393.66561783295356</v>
+        <v>406.39060637757831</v>
       </c>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.25">
@@ -8618,7 +8646,7 @@
       </c>
       <c r="D22" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B22+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.5687792132587495</v>
+        <v>1.6196429809460691</v>
       </c>
       <c r="G22">
         <f t="shared" si="22"/>
@@ -8630,7 +8658,7 @@
       </c>
       <c r="I22" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G22+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>7.8190053590615518</v>
+        <v>8.0731711008046947</v>
       </c>
       <c r="L22">
         <f t="shared" si="23"/>
@@ -8642,7 +8670,7 @@
       </c>
       <c r="N22" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L22+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>16.334950520624599</v>
+        <v>16.847568711527575</v>
       </c>
       <c r="Q22">
         <f t="shared" si="24"/>
@@ -8654,7 +8682,7 @@
       </c>
       <c r="S22" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q22+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>81.674752603122982</v>
+        <v>84.237843557637888</v>
       </c>
       <c r="V22">
         <f t="shared" si="25"/>
@@ -8666,7 +8694,7 @@
       </c>
       <c r="X22" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V22+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>156.87792132587495</v>
+        <v>161.9642980946069</v>
       </c>
       <c r="AA22">
         <f t="shared" si="26"/>
@@ -8678,7 +8706,7 @@
       </c>
       <c r="AC22" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA22+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>313.7558426517499</v>
+        <v>323.92859618921381</v>
       </c>
       <c r="AF22">
         <f t="shared" si="27"/>
@@ -8690,7 +8718,7 @@
       </c>
       <c r="AH22" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF22+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>235.31688198881241</v>
+        <v>242.94644714191034</v>
       </c>
       <c r="AK22">
         <f t="shared" si="28"/>
@@ -8702,7 +8730,7 @@
       </c>
       <c r="AM22" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK22+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>392.19480331468736</v>
+        <v>404.91074523651724</v>
       </c>
     </row>
     <row r="23" spans="2:39" x14ac:dyDescent="0.25">
@@ -8716,7 +8744,7 @@
       </c>
       <c r="D23" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B23+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.5638010718123103</v>
+        <v>1.6146342201609389</v>
       </c>
       <c r="G23">
         <f t="shared" si="22"/>
@@ -8728,7 +8756,7 @@
       </c>
       <c r="I23" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G23+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>7.7976704671482411</v>
+        <v>8.0517049831541367</v>
       </c>
       <c r="L23">
         <f t="shared" si="23"/>
@@ -8740,7 +8768,7 @@
       </c>
       <c r="N23" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L23+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>16.150048124042566</v>
+        <v>16.661529025222752</v>
       </c>
       <c r="Q23">
         <f t="shared" si="24"/>
@@ -8752,7 +8780,7 @@
       </c>
       <c r="S23" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q23+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>80.750240620212836</v>
+        <v>83.307645126113769</v>
       </c>
       <c r="V23">
         <f t="shared" si="25"/>
@@ -8764,7 +8792,7 @@
       </c>
       <c r="X23" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V23+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>156.38010718123104</v>
+        <v>161.46342201609389</v>
       </c>
       <c r="AA23">
         <f t="shared" si="26"/>
@@ -8776,7 +8804,7 @@
       </c>
       <c r="AC23" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA23+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>312.76021436246208</v>
+        <v>322.92684403218777</v>
       </c>
       <c r="AF23">
         <f t="shared" si="27"/>
@@ -8788,7 +8816,7 @@
       </c>
       <c r="AH23" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF23+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>234.57016077184653</v>
+        <v>242.19513302414086</v>
       </c>
       <c r="AK23">
         <f t="shared" si="28"/>
@@ -8800,7 +8828,7 @@
       </c>
       <c r="AM23" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK23+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>390.95026795307757</v>
+        <v>403.65855504023477</v>
       </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.25">
@@ -8814,7 +8842,7 @@
       </c>
       <c r="D24" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B24+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.5595340934296482</v>
+        <v>1.6103409966308275</v>
       </c>
       <c r="G24">
         <f t="shared" si="22"/>
@@ -8826,7 +8854,7 @@
       </c>
       <c r="I24" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G24+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>7.7791802274900377</v>
+        <v>8.0331010145236554</v>
       </c>
       <c r="L24">
         <f>L23+500</f>
@@ -8838,7 +8866,7 @@
       </c>
       <c r="N24" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L24+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>16.011371326606049</v>
+        <v>16.521999260494134</v>
       </c>
       <c r="Q24">
         <f>Q23+500</f>
@@ -8850,7 +8878,7 @@
       </c>
       <c r="S24" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q24+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>80.056856633030236</v>
+        <v>82.609996302470662</v>
       </c>
       <c r="V24">
         <f t="shared" si="25"/>
@@ -8862,7 +8890,7 @@
       </c>
       <c r="X24" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V24+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>155.95340934296482</v>
+        <v>161.03409966308274</v>
       </c>
       <c r="AA24">
         <f t="shared" si="26"/>
@@ -8874,7 +8902,7 @@
       </c>
       <c r="AC24" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA24+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>311.90681868592964</v>
+        <v>322.06819932616548</v>
       </c>
       <c r="AF24">
         <f t="shared" si="27"/>
@@ -8886,7 +8914,7 @@
       </c>
       <c r="AH24" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF24+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>233.93011401444721</v>
+        <v>241.55114949462413</v>
       </c>
       <c r="AK24">
         <f t="shared" si="28"/>
@@ -8898,7 +8926,7 @@
       </c>
       <c r="AM24" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK24+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>389.88352335741206</v>
+        <v>402.58524915770687</v>
       </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.25">
@@ -8912,7 +8940,7 @@
       </c>
       <c r="D25" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B25+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.5558360454980076</v>
+        <v>1.606620202904731</v>
       </c>
       <c r="G25">
         <f t="shared" si="22"/>
@@ -8924,7 +8952,7 @@
       </c>
       <c r="I25" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G25+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>7.7630012677891083</v>
+        <v>8.0168225419719814</v>
       </c>
       <c r="L25">
         <f t="shared" ref="L25:L33" si="30">L24+500</f>
@@ -8936,7 +8964,7 @@
       </c>
       <c r="N25" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L25+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>15.903511595266528</v>
+        <v>16.413476110149652</v>
       </c>
       <c r="Q25">
         <f t="shared" ref="Q25:Q33" si="31">Q24+500</f>
@@ -8948,7 +8976,7 @@
       </c>
       <c r="S25" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q25+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>79.51755797633264</v>
+        <v>82.067380550748254</v>
       </c>
       <c r="V25">
         <f t="shared" si="25"/>
@@ -8960,7 +8988,7 @@
       </c>
       <c r="X25" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V25+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>155.58360454980075</v>
+        <v>160.66202029047309</v>
       </c>
       <c r="AA25">
         <f t="shared" si="26"/>
@@ -8972,7 +9000,7 @@
       </c>
       <c r="AC25" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA25+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>311.16720909960151</v>
+        <v>321.32404058094619</v>
       </c>
       <c r="AF25">
         <f t="shared" si="27"/>
@@ -8984,7 +9012,7 @@
       </c>
       <c r="AH25" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF25+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>233.37540682470114</v>
+        <v>240.99303043570967</v>
       </c>
       <c r="AK25">
         <f t="shared" si="28"/>
@@ -8996,7 +9024,7 @@
       </c>
       <c r="AM25" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK25+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>388.95901137450187</v>
+        <v>401.65505072618276</v>
       </c>
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.25">
@@ -9010,7 +9038,7 @@
       </c>
       <c r="D26" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B26+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.5526002535578218</v>
+        <v>1.6033645083943964</v>
       </c>
       <c r="G26">
         <f t="shared" si="22"/>
@@ -9022,7 +9050,7 @@
       </c>
       <c r="I26" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!G26+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$G$3</f>
-        <v>7.7487257151118198</v>
+        <v>8.0024591838381536</v>
       </c>
       <c r="L26">
         <f t="shared" si="30"/>
@@ -9034,7 +9062,7 @@
       </c>
       <c r="N26" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L26+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>15.817223810194918</v>
+        <v>16.326657589874067</v>
       </c>
       <c r="Q26">
         <f t="shared" si="31"/>
@@ -9046,7 +9074,7 @@
       </c>
       <c r="S26" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q26+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>79.086119050974588</v>
+        <v>81.633287949370327</v>
       </c>
       <c r="V26">
         <f t="shared" si="25"/>
@@ -9058,7 +9086,7 @@
       </c>
       <c r="X26" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V26+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>155.26002535578218</v>
+        <v>160.33645083943964</v>
       </c>
       <c r="AA26">
         <f t="shared" si="26"/>
@@ -9070,7 +9098,7 @@
       </c>
       <c r="AC26" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA26+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>310.52005071156435</v>
+        <v>320.67290167887927</v>
       </c>
       <c r="AF26">
         <f t="shared" si="27"/>
@@ -9082,7 +9110,7 @@
       </c>
       <c r="AH26" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF26+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>232.89003803367325</v>
+        <v>240.50467625915945</v>
       </c>
       <c r="AK26">
         <f t="shared" si="28"/>
@@ -9094,7 +9122,7 @@
       </c>
       <c r="AM26" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK26+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>388.15006338945545</v>
+        <v>400.84112709859909</v>
       </c>
     </row>
     <row r="27" spans="2:39" x14ac:dyDescent="0.25">
@@ -9108,7 +9136,7 @@
       </c>
       <c r="D27" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!B27+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$B$3</f>
-        <v>1.5497451430223641</v>
+        <v>1.6004918367676308</v>
       </c>
       <c r="L27">
         <f t="shared" si="30"/>
@@ -9120,7 +9148,7 @@
       </c>
       <c r="N27" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L27+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>15.746624713318141</v>
+        <v>16.255624255103132</v>
       </c>
       <c r="Q27">
         <f t="shared" si="31"/>
@@ -9132,7 +9160,7 @@
       </c>
       <c r="S27" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q27+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>78.733123566590706</v>
+        <v>81.278121275515659</v>
       </c>
       <c r="V27">
         <f t="shared" si="25"/>
@@ -9144,7 +9172,7 @@
       </c>
       <c r="X27" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!V27+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$V$3</f>
-        <v>154.9745143022364</v>
+        <v>160.04918367676308</v>
       </c>
       <c r="AA27">
         <f t="shared" si="26"/>
@@ -9156,7 +9184,7 @@
       </c>
       <c r="AC27" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AA27+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AA$3</f>
-        <v>309.9490286044728</v>
+        <v>320.09836735352616</v>
       </c>
       <c r="AF27">
         <f t="shared" si="27"/>
@@ -9168,7 +9196,7 @@
       </c>
       <c r="AH27" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AF27+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AF$3</f>
-        <v>232.4617714533546</v>
+        <v>240.07377551514463</v>
       </c>
       <c r="AK27">
         <f t="shared" si="28"/>
@@ -9180,7 +9208,7 @@
       </c>
       <c r="AM27" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!AK27+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$AK$3</f>
-        <v>387.43628575559103</v>
+        <v>400.12295919190774</v>
       </c>
     </row>
     <row r="28" spans="2:39" x14ac:dyDescent="0.25">
@@ -9194,7 +9222,7 @@
       </c>
       <c r="N28" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L28+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>15.687792132587495</v>
+        <v>16.196429809460689</v>
       </c>
       <c r="Q28">
         <f t="shared" si="31"/>
@@ -9206,7 +9234,7 @@
       </c>
       <c r="S28" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q28+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>78.438960662937475</v>
+        <v>80.982149047303452</v>
       </c>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.25">
@@ -9220,7 +9248,7 @@
       </c>
       <c r="N29" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L29+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>15.638010718123104</v>
+        <v>16.146342201609389</v>
       </c>
       <c r="Q29">
         <f t="shared" si="31"/>
@@ -9232,7 +9260,7 @@
       </c>
       <c r="S29" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q29+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>78.19005359061552</v>
+        <v>80.731711008046943</v>
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.25">
@@ -9246,7 +9274,7 @@
       </c>
       <c r="N30" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L30+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>15.595340934296482</v>
+        <v>16.103409966308273</v>
       </c>
       <c r="Q30">
         <f t="shared" si="31"/>
@@ -9258,7 +9286,7 @@
       </c>
       <c r="S30" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q30+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>77.976704671482409</v>
+        <v>80.517049831541371</v>
       </c>
     </row>
     <row r="31" spans="2:39" x14ac:dyDescent="0.25">
@@ -9272,7 +9300,7 @@
       </c>
       <c r="N31" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L31+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>15.558360454980075</v>
+        <v>16.066202029047311</v>
       </c>
       <c r="Q31">
         <f t="shared" si="31"/>
@@ -9284,7 +9312,7 @@
       </c>
       <c r="S31" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q31+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>77.791802274900377</v>
+        <v>80.331010145236547</v>
       </c>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.25">
@@ -9298,7 +9326,7 @@
       </c>
       <c r="N32" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L32+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>15.526002535578217</v>
+        <v>16.033645083943963</v>
       </c>
       <c r="Q32">
         <f t="shared" si="31"/>
@@ -9310,7 +9338,7 @@
       </c>
       <c r="S32" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q32+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>77.630012677891088</v>
+        <v>80.168225419719818</v>
       </c>
     </row>
     <row r="33" spans="12:19" x14ac:dyDescent="0.25">
@@ -9324,7 +9352,7 @@
       </c>
       <c r="N33" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!L33+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$L$3</f>
-        <v>15.49745143022364</v>
+        <v>16.004918367676307</v>
       </c>
       <c r="Q33">
         <f t="shared" si="31"/>
@@ -9336,7 +9364,7 @@
       </c>
       <c r="S33" s="2">
         <f>(Tabelle!$H$2/'Linien konstante Mengen'!Q33+Tabelle!$H$3/100)/1000*'Linien konstante Mengen'!$Q$3</f>
-        <v>77.4872571511182</v>
+        <v>80.024591838381539</v>
       </c>
     </row>
   </sheetData>
